--- a/air_condition/docs/工作簿1.xlsx
+++ b/air_condition/docs/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
@@ -448,15 +448,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,8 +472,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,39 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,45 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +607,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,13 +679,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,162 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -825,21 +825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color rgb="FF000000"/>
@@ -849,24 +834,6 @@
       </top>
       <bottom style="dotted">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,47 +849,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,7 +872,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,137 +955,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,9 +1099,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1443,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="B1:M150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1484,6 +1466,7 @@
     </row>
     <row r="2" ht="15" spans="2:6">
       <c r="B2" s="2">
+        <f>B1+1</f>
         <v>-39</v>
       </c>
       <c r="C2" s="3">
@@ -1504,13 +1487,14 @@
     </row>
     <row r="3" ht="15" spans="2:11">
       <c r="B3" s="2">
+        <f t="shared" ref="B3:B34" si="2">B2+1</f>
         <v>-38</v>
       </c>
       <c r="C3" s="3">
         <v>175.674</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="2">3.3/(10+C3)*C3*4096/3.3</f>
+        <f t="shared" ref="D3:D25" si="3">3.3/(10+C3)*C3*4096/3.3</f>
         <v>3875.39830024667</v>
       </c>
       <c r="E3">
@@ -1530,17 +1514,18 @@
     </row>
     <row r="4" ht="15" spans="2:6">
       <c r="B4" s="2">
+        <f t="shared" si="2"/>
         <v>-37</v>
       </c>
       <c r="C4" s="3">
         <v>167.6467</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3865.42999785529</v>
       </c>
       <c r="E4">
-        <f>ROUND(D4,0)</f>
+        <f t="shared" si="0"/>
         <v>3865</v>
       </c>
       <c r="F4" t="str">
@@ -1550,13 +1535,14 @@
     </row>
     <row r="5" ht="15" spans="2:6">
       <c r="B5" s="2">
+        <f t="shared" si="2"/>
         <v>-36</v>
       </c>
       <c r="C5" s="3">
         <v>159.5647</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3854.44028857421</v>
       </c>
       <c r="E5">
@@ -1570,13 +1556,14 @@
     </row>
     <row r="6" ht="15" spans="2:6">
       <c r="B6" s="2">
+        <f t="shared" si="2"/>
         <v>-35</v>
       </c>
       <c r="C6" s="3">
         <v>151.5975</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3842.53073222049</v>
       </c>
       <c r="E6">
@@ -1590,13 +1577,14 @@
     </row>
     <row r="7" ht="15" spans="2:13">
       <c r="B7" s="2">
+        <f t="shared" si="2"/>
         <v>-34</v>
       </c>
       <c r="C7" s="3">
         <v>143.8624</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3829.78811197538</v>
       </c>
       <c r="E7">
@@ -1622,13 +1610,14 @@
     </row>
     <row r="8" ht="15" spans="2:6">
       <c r="B8" s="2">
+        <f t="shared" si="2"/>
         <v>-33</v>
       </c>
       <c r="C8" s="3">
         <v>136.4361</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3816.28755204489</v>
       </c>
       <c r="E8">
@@ -1642,17 +1631,18 @@
     </row>
     <row r="9" ht="15" spans="2:6">
       <c r="B9" s="2">
+        <f t="shared" si="2"/>
         <v>-32</v>
       </c>
       <c r="C9" s="3">
         <v>129.3641</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3802.09360660313</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E40" si="3">ROUND(D9,0)</f>
+        <f t="shared" ref="E9:E40" si="4">ROUND(D9,0)</f>
         <v>3802</v>
       </c>
       <c r="F9" t="str">
@@ -1662,17 +1652,18 @@
     </row>
     <row r="10" ht="15" spans="2:6">
       <c r="B10" s="2">
+        <f t="shared" si="2"/>
         <v>-31</v>
       </c>
       <c r="C10" s="3">
         <v>122.6678</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3787.25891889366</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3787</v>
       </c>
       <c r="F10" t="str">
@@ -1682,17 +1673,18 @@
     </row>
     <row r="11" ht="15" spans="2:6">
       <c r="B11" s="2">
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="C11" s="3">
         <v>116.3519</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3771.8260065737</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3772</v>
       </c>
       <c r="F11" t="str">
@@ -1702,37 +1694,39 @@
     </row>
     <row r="12" ht="15" spans="2:6">
       <c r="B12" s="2">
+        <f t="shared" si="2"/>
         <v>-29</v>
       </c>
       <c r="C12" s="3">
         <v>110.4098</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3755.82835284171</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3756</v>
       </c>
       <c r="F12" t="str">
-        <f>DEC2HEX(E12)</f>
+        <f t="shared" si="1"/>
         <v>EAC</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:6">
       <c r="B13" s="2">
+        <f t="shared" si="2"/>
         <v>-28</v>
       </c>
       <c r="C13" s="3">
         <v>104.8272</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3739.29009154625</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3739</v>
       </c>
       <c r="F13" t="str">
@@ -1741,18 +1735,19 @@
       </c>
     </row>
     <row r="14" ht="15" spans="2:6">
-      <c r="B14" s="4">
+      <c r="B14" s="2">
+        <f t="shared" si="2"/>
         <v>-27</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>99.5847</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3722.22519384549</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3722</v>
       </c>
       <c r="F14" t="str">
@@ -1762,17 +1757,18 @@
     </row>
     <row r="15" ht="15" spans="2:6">
       <c r="B15" s="2">
+        <f t="shared" si="2"/>
         <v>-26</v>
       </c>
       <c r="C15" s="3">
         <v>94.6608</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3704.6404843074</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3705</v>
       </c>
       <c r="F15" t="str">
@@ -1782,17 +1778,18 @@
     </row>
     <row r="16" ht="15" spans="2:6">
       <c r="B16" s="2">
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="C16" s="3">
         <v>90.0326</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3686.53348608354</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3687</v>
       </c>
       <c r="F16" t="str">
@@ -1802,17 +1799,18 @@
     </row>
     <row r="17" ht="15" spans="2:6">
       <c r="B17" s="2">
+        <f t="shared" si="2"/>
         <v>-24</v>
       </c>
       <c r="C17" s="3">
         <v>85.6778</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3667.89651099837</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3668</v>
       </c>
       <c r="F17" t="str">
@@ -1822,17 +1820,18 @@
     </row>
     <row r="18" ht="15" spans="2:6">
       <c r="B18" s="2">
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="C18" s="3">
         <v>81.5747</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3648.71488740886</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3649</v>
       </c>
       <c r="F18" t="str">
@@ -1842,17 +1841,18 @@
     </row>
     <row r="19" ht="15" spans="2:6">
       <c r="B19" s="2">
+        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
       <c r="C19" s="3">
         <v>77.7031</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3628.96975819555</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3629</v>
       </c>
       <c r="F19" t="str">
@@ -1862,17 +1862,18 @@
     </row>
     <row r="20" ht="15" spans="2:6">
       <c r="B20" s="2">
+        <f t="shared" si="2"/>
         <v>-21</v>
       </c>
       <c r="C20" s="3">
         <v>74.0442</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3608.63739794061</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3609</v>
       </c>
       <c r="F20" t="str">
@@ -1882,17 +1883,18 @@
     </row>
     <row r="21" ht="15" spans="2:6">
       <c r="B21" s="2">
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
       <c r="C21" s="3">
         <v>70.5811</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3587.69222063238</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3588</v>
       </c>
       <c r="F21" t="str">
@@ -1902,17 +1904,18 @@
     </row>
     <row r="22" ht="15" spans="2:6">
       <c r="B22" s="2">
+        <f t="shared" si="2"/>
         <v>-19</v>
       </c>
       <c r="C22" s="3">
         <v>67.2987</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3566.10751797896</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3566</v>
       </c>
       <c r="F22" t="str">
@@ -1922,17 +1925,18 @@
     </row>
     <row r="23" ht="15" spans="2:6">
       <c r="B23" s="2">
+        <f t="shared" si="2"/>
         <v>-18</v>
       </c>
       <c r="C23" s="3">
         <v>64.1834</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3543.85491093695</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3544</v>
       </c>
       <c r="F23" t="str">
@@ -1942,17 +1946,18 @@
     </row>
     <row r="24" ht="15" spans="2:6">
       <c r="B24" s="2">
+        <f t="shared" si="2"/>
         <v>-17</v>
       </c>
       <c r="C24" s="3">
         <v>61.2233</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3520.9072985947</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3521</v>
       </c>
       <c r="F24" t="str">
@@ -1962,17 +1967,18 @@
     </row>
     <row r="25" ht="15" spans="2:6">
       <c r="B25" s="2">
+        <f t="shared" si="2"/>
         <v>-16</v>
       </c>
       <c r="C25" s="3">
         <v>58.408</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3497.23962109695</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3497</v>
       </c>
       <c r="F25" t="str">
@@ -1982,17 +1988,18 @@
     </row>
     <row r="26" ht="15" spans="2:6">
       <c r="B26" s="2">
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="C26" s="3">
         <v>55.7284</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D57" si="4">3.3/(10+C26)*C26*4096/3.3</f>
+        <f t="shared" ref="D26:D57" si="5">3.3/(10+C26)*C26*4096/3.3</f>
         <v>3472.82949835992</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3473</v>
       </c>
       <c r="F26" t="str">
@@ -2001,18 +2008,19 @@
       </c>
     </row>
     <row r="27" ht="15" spans="2:6">
-      <c r="B27" s="4">
+      <c r="B27" s="2">
+        <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>53.1766</v>
       </c>
       <c r="D27">
+        <f t="shared" si="5"/>
+        <v>3447.65868375316</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="4"/>
-        <v>3447.65868375316</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
         <v>3448</v>
       </c>
       <c r="F27" t="str">
@@ -2022,17 +2030,18 @@
     </row>
     <row r="28" ht="15" spans="2:6">
       <c r="B28" s="2">
+        <f t="shared" si="2"/>
         <v>-13</v>
       </c>
       <c r="C28" s="3">
         <v>50.7456</v>
       </c>
       <c r="D28">
+        <f t="shared" si="5"/>
+        <v>3421.712479587</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="4"/>
-        <v>3421.712479587</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="3"/>
         <v>3422</v>
       </c>
       <c r="F28" t="str">
@@ -2042,17 +2051,18 @@
     </row>
     <row r="29" ht="15" spans="2:6">
       <c r="B29" s="2">
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
       <c r="C29" s="3">
         <v>48.4294</v>
       </c>
       <c r="D29">
+        <f t="shared" si="5"/>
+        <v>3394.98304620619</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="4"/>
-        <v>3394.98304620619</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="3"/>
         <v>3395</v>
       </c>
       <c r="F29" t="str">
@@ -2062,17 +2072,18 @@
     </row>
     <row r="30" ht="15" spans="2:6">
       <c r="B30" s="2">
+        <f t="shared" si="2"/>
         <v>-11</v>
       </c>
       <c r="C30" s="3">
         <v>46.2224</v>
       </c>
       <c r="D30">
+        <f t="shared" si="5"/>
+        <v>3367.46475426165</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="4"/>
-        <v>3367.46475426165</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="3"/>
         <v>3367</v>
       </c>
       <c r="F30" t="str">
@@ -2082,17 +2093,18 @@
     </row>
     <row r="31" ht="15" spans="2:6">
       <c r="B31" s="2">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="C31" s="3">
         <v>44.1201</v>
       </c>
       <c r="D31">
+        <f t="shared" si="5"/>
+        <v>3339.16473916345</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="4"/>
-        <v>3339.16473916345</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
         <v>3339</v>
       </c>
       <c r="F31" t="str">
@@ -2102,17 +2114,18 @@
     </row>
     <row r="32" ht="15" spans="2:6">
       <c r="B32" s="2">
+        <f t="shared" si="2"/>
         <v>-9</v>
       </c>
       <c r="C32" s="3">
         <v>42.118</v>
       </c>
       <c r="D32">
+        <f t="shared" si="5"/>
+        <v>3310.0911009632</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="4"/>
-        <v>3310.0911009632</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
         <v>3310</v>
       </c>
       <c r="F32" t="str">
@@ -2122,17 +2135,18 @@
     </row>
     <row r="33" ht="15" spans="2:6">
       <c r="B33" s="2">
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="C33" s="3">
         <v>40.2121</v>
       </c>
       <c r="D33">
+        <f t="shared" si="5"/>
+        <v>3280.26036752098</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="4"/>
-        <v>3280.26036752098</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="3"/>
         <v>3280</v>
       </c>
       <c r="F33" t="str">
@@ -2142,2342 +2156,2459 @@
     </row>
     <row r="34" ht="15" spans="2:6">
       <c r="B34" s="2">
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
       <c r="C34" s="3">
         <v>38.3988</v>
       </c>
       <c r="D34">
+        <f t="shared" si="5"/>
+        <v>3249.69802557088</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="4"/>
-        <v>3249.69802557088</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
         <v>3250</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34:F65" si="5">DEC2HEX(E34)</f>
+        <f t="shared" ref="F34:F65" si="6">DEC2HEX(E34)</f>
         <v>CB2</v>
       </c>
     </row>
     <row r="35" ht="15" spans="2:6">
       <c r="B35" s="2">
+        <f t="shared" ref="B35:B66" si="7">B34+1</f>
         <v>-6</v>
       </c>
       <c r="C35" s="3">
         <v>36.6746</v>
       </c>
       <c r="D35">
+        <f t="shared" si="5"/>
+        <v>3218.43490035265</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="4"/>
-        <v>3218.43490035265</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
         <v>3218</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>C92</v>
       </c>
     </row>
     <row r="36" ht="15" spans="2:6">
       <c r="B36" s="2">
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
       <c r="C36" s="3">
         <v>35.0362</v>
       </c>
       <c r="D36">
+        <f t="shared" si="5"/>
+        <v>3186.50941242822</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="4"/>
-        <v>3186.50941242822</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
         <v>3187</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>C73</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:6">
       <c r="B37" s="2">
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="C37" s="3">
         <v>33.4802</v>
       </c>
       <c r="D37">
+        <f t="shared" si="5"/>
+        <v>3153.96201489414</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="4"/>
-        <v>3153.96201489414</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
         <v>3154</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>C52</v>
       </c>
     </row>
     <row r="38" ht="15" spans="2:6">
       <c r="B38" s="2">
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="C38" s="3">
         <v>32.0035</v>
       </c>
       <c r="D38">
+        <f t="shared" si="5"/>
+        <v>3120.84316783125</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="4"/>
-        <v>3120.84316783125</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
         <v>3121</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>C31</v>
       </c>
     </row>
     <row r="39" ht="15" spans="2:6">
       <c r="B39" s="2">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="C39" s="3">
         <v>30.6028</v>
       </c>
       <c r="D39">
+        <f t="shared" si="5"/>
+        <v>3087.20257716217</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="4"/>
-        <v>3087.20257716217</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
         <v>3087</v>
       </c>
       <c r="F39" t="str">
+        <f t="shared" si="6"/>
+        <v>C0F</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="2:6">
+      <c r="B40" s="2">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>29.275</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="5"/>
-        <v>C0F</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="2:6">
-      <c r="B40" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C40" s="5">
-        <v>29.275</v>
-      </c>
-      <c r="D40">
+        <v>3053.09739019733</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="4"/>
-        <v>3053.09739019733</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
         <v>3053</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>BED</v>
       </c>
     </row>
     <row r="41" ht="15" spans="2:6">
       <c r="B41" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C41" s="3">
         <v>28.017</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3018.5872635926</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:E72" si="6">ROUND(D41,0)</f>
+        <f t="shared" ref="E41:E72" si="8">ROUND(D41,0)</f>
         <v>3019</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>BCB</v>
       </c>
     </row>
     <row r="42" ht="15" spans="2:6">
       <c r="B42" s="2">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C42" s="3">
         <v>26.8255</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2983.72725421243</v>
       </c>
       <c r="E42">
+        <f t="shared" si="8"/>
+        <v>2984</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="6"/>
-        <v>2984</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="5"/>
         <v>BA8</v>
       </c>
     </row>
     <row r="43" ht="15" spans="2:6">
       <c r="B43" s="2">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C43" s="3">
         <v>25.6972</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2948.57106999989</v>
       </c>
       <c r="E43">
+        <f t="shared" si="8"/>
+        <v>2949</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="6"/>
-        <v>2949</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="5"/>
         <v>B85</v>
       </c>
     </row>
     <row r="44" ht="15" spans="2:6">
       <c r="B44" s="2">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C44" s="3">
         <v>24.629</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2913.17635507811</v>
       </c>
       <c r="E44">
+        <f t="shared" si="8"/>
+        <v>2913</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="6"/>
-        <v>2913</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="5"/>
         <v>B61</v>
       </c>
     </row>
     <row r="45" ht="15" spans="2:6">
       <c r="B45" s="2">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C45" s="3">
         <v>23.6176</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2877.59059540241</v>
       </c>
       <c r="E45">
+        <f t="shared" si="8"/>
+        <v>2878</v>
+      </c>
+      <c r="F45" t="str">
         <f t="shared" si="6"/>
-        <v>2878</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="5"/>
         <v>B3E</v>
       </c>
     </row>
     <row r="46" ht="15" spans="2:6">
       <c r="B46" s="2">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C46" s="3">
         <v>22.6597</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2841.8549833587</v>
       </c>
       <c r="E46">
+        <f t="shared" si="8"/>
+        <v>2842</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="6"/>
-        <v>2842</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="5"/>
         <v>B1A</v>
       </c>
     </row>
     <row r="47" ht="15" spans="2:6">
       <c r="B47" s="2">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C47" s="3">
         <v>21.7522</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2806.01064493169</v>
       </c>
       <c r="E47">
+        <f t="shared" si="8"/>
+        <v>2806</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="6"/>
-        <v>2806</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="5"/>
         <v>AF6</v>
       </c>
     </row>
     <row r="48" ht="15" spans="2:6">
       <c r="B48" s="2">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C48" s="3">
         <v>20.8916</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2770.07321084049</v>
       </c>
       <c r="E48">
+        <f t="shared" si="8"/>
+        <v>2770</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="6"/>
-        <v>2770</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="5"/>
         <v>AD2</v>
       </c>
     </row>
     <row r="49" ht="15" spans="2:6">
       <c r="B49" s="2">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>20.0749</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2734.06695949114</v>
       </c>
       <c r="E49">
+        <f t="shared" si="8"/>
+        <v>2734</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="6"/>
-        <v>2734</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="5"/>
         <v>AAE</v>
       </c>
     </row>
     <row r="50" ht="15" spans="2:6">
       <c r="B50" s="2">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C50" s="3">
         <v>19.2988</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2697.99052520922</v>
       </c>
       <c r="E50">
+        <f t="shared" si="8"/>
+        <v>2698</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="6"/>
-        <v>2698</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="5"/>
         <v>A8A</v>
       </c>
     </row>
     <row r="51" ht="15" spans="2:6">
       <c r="B51" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C51" s="3">
         <v>18.56</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2661.82633053221</v>
       </c>
       <c r="E51">
+        <f t="shared" si="8"/>
+        <v>2662</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="6"/>
-        <v>2662</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="5"/>
         <v>A66</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:6">
       <c r="B52" s="2">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C52" s="3">
         <v>18.4818</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2657.88864467836</v>
       </c>
       <c r="E52">
+        <f t="shared" si="8"/>
+        <v>2658</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="6"/>
-        <v>2658</v>
-      </c>
-      <c r="F52" t="str">
+        <v>A62</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="2:6">
+      <c r="B53" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C53" s="4">
+        <v>18.1489</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="5"/>
-        <v>A62</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="2:6">
-      <c r="B53" s="4">
-        <v>12</v>
-      </c>
-      <c r="C53" s="5">
-        <v>18.1489</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="4"/>
         <v>2640.88097225824</v>
       </c>
       <c r="E53">
+        <f t="shared" si="8"/>
+        <v>2641</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="6"/>
-        <v>2641</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="5"/>
         <v>A51</v>
       </c>
     </row>
     <row r="54" ht="15" spans="2:6">
       <c r="B54" s="2">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C54" s="3">
         <v>17.6316</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2613.63922465583</v>
       </c>
       <c r="E54">
+        <f t="shared" si="8"/>
+        <v>2614</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="6"/>
-        <v>2614</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="5"/>
         <v>A36</v>
       </c>
     </row>
     <row r="55" ht="15" spans="2:6">
       <c r="B55" s="2">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C55" s="3">
         <v>16.9917</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2578.49647113742</v>
       </c>
       <c r="E55">
+        <f t="shared" si="8"/>
+        <v>2578</v>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="6"/>
-        <v>2578</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="5"/>
         <v>A12</v>
       </c>
     </row>
     <row r="56" ht="15" spans="2:6">
       <c r="B56" s="2">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="C56" s="3">
         <v>16.2797</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2537.38251197693</v>
       </c>
       <c r="E56">
+        <f t="shared" si="8"/>
+        <v>2537</v>
+      </c>
+      <c r="F56" t="str">
         <f t="shared" si="6"/>
-        <v>2537</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="5"/>
         <v>9E9</v>
       </c>
     </row>
     <row r="57" ht="15" spans="2:6">
       <c r="B57" s="2">
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="C57" s="3">
         <v>15.535</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2491.92715880164</v>
       </c>
       <c r="E57">
+        <f t="shared" si="8"/>
+        <v>2492</v>
+      </c>
+      <c r="F57" t="str">
         <f t="shared" si="6"/>
-        <v>2492</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="5"/>
         <v>9BC</v>
       </c>
     </row>
     <row r="58" ht="15" spans="2:6">
       <c r="B58" s="2">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="C58" s="3">
         <v>14.7867</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D89" si="7">3.3/(10+C58)*C58*4096/3.3</f>
+        <f t="shared" ref="D58:D89" si="9">3.3/(10+C58)*C58*4096/3.3</f>
         <v>2443.50087748672</v>
       </c>
       <c r="E58">
+        <f t="shared" si="8"/>
+        <v>2444</v>
+      </c>
+      <c r="F58" t="str">
         <f t="shared" si="6"/>
-        <v>2444</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="5"/>
         <v>98C</v>
       </c>
     </row>
     <row r="59" ht="15" spans="2:6">
       <c r="B59" s="2">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="C59" s="3">
         <v>14.0551</v>
       </c>
       <c r="D59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2393.24258057543</v>
       </c>
       <c r="E59">
+        <f t="shared" si="8"/>
+        <v>2393</v>
+      </c>
+      <c r="F59" t="str">
         <f t="shared" si="6"/>
-        <v>2393</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="5"/>
         <v>959</v>
       </c>
     </row>
     <row r="60" ht="15" spans="2:6">
       <c r="B60" s="2">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="C60" s="3">
         <v>13.3536</v>
       </c>
       <c r="D60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2342.09482049877</v>
       </c>
       <c r="E60">
+        <f t="shared" si="8"/>
+        <v>2342</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="6"/>
-        <v>2342</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="5"/>
         <v>926</v>
       </c>
     </row>
     <row r="61" ht="15" spans="2:6">
       <c r="B61" s="2">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C61" s="3">
         <v>12.69</v>
       </c>
       <c r="D61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2290.79947113266</v>
       </c>
       <c r="E61">
+        <f t="shared" si="8"/>
+        <v>2291</v>
+      </c>
+      <c r="F61" t="str">
         <f t="shared" si="6"/>
-        <v>2291</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="5"/>
         <v>8F3</v>
       </c>
     </row>
     <row r="62" ht="15" spans="2:6">
       <c r="B62" s="2">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="C62" s="3">
         <v>12.0684</v>
       </c>
       <c r="D62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2239.95243878124</v>
       </c>
       <c r="E62">
+        <f t="shared" si="8"/>
+        <v>2240</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="6"/>
-        <v>2240</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="5"/>
         <v>8C0</v>
       </c>
     </row>
     <row r="63" ht="15" spans="2:6">
       <c r="B63" s="2">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="C63" s="3">
         <v>11.49</v>
       </c>
       <c r="D63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2189.99720800372</v>
       </c>
       <c r="E63">
+        <f t="shared" si="8"/>
+        <v>2190</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="6"/>
-        <v>2190</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="5"/>
         <v>88E</v>
       </c>
     </row>
     <row r="64" ht="15" spans="2:6">
       <c r="B64" s="2">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C64" s="3">
         <v>10.9539</v>
       </c>
       <c r="D64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2141.23262972525</v>
       </c>
       <c r="E64">
+        <f t="shared" si="8"/>
+        <v>2141</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="6"/>
-        <v>2141</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="5"/>
         <v>85D</v>
       </c>
     </row>
     <row r="65" ht="15" spans="2:6">
       <c r="B65" s="2">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C65" s="3">
         <v>10.4582</v>
       </c>
       <c r="D65">
+        <f t="shared" si="9"/>
+        <v>2093.86882521434</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="8"/>
+        <v>2094</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="6"/>
+        <v>82E</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="2:6">
+      <c r="B66" s="2">
         <f t="shared" si="7"/>
-        <v>2093.86882521434</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="6"/>
-        <v>2094</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="5"/>
-        <v>82E</v>
-      </c>
-    </row>
-    <row r="66" ht="15" spans="2:6">
-      <c r="B66" s="4">
         <v>25</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>10</v>
       </c>
       <c r="D66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2048</v>
       </c>
       <c r="E66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2048</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F97" si="8">DEC2HEX(E66)</f>
+        <f t="shared" ref="F66:F97" si="10">DEC2HEX(E66)</f>
         <v>800</v>
       </c>
     </row>
     <row r="67" ht="15" spans="2:6">
       <c r="B67" s="2">
+        <f t="shared" ref="B67:B98" si="11">B66+1</f>
         <v>26</v>
       </c>
       <c r="C67" s="3">
         <v>9.5762</v>
       </c>
       <c r="D67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2003.66338717422</v>
       </c>
       <c r="E67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2004</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7D4</v>
       </c>
     </row>
     <row r="68" ht="15" spans="2:6">
       <c r="B68" s="2">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="C68" s="3">
         <v>9.1835</v>
       </c>
       <c r="D68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1960.83175645737</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1961</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7A9</v>
       </c>
     </row>
     <row r="69" ht="15" spans="2:6">
       <c r="B69" s="2">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="C69" s="3">
         <v>8.8186</v>
       </c>
       <c r="D69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1919.43001073406</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1919</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>77F</v>
       </c>
     </row>
     <row r="70" ht="15" spans="2:6">
       <c r="B70" s="2">
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="C70" s="3">
         <v>8.4784</v>
       </c>
       <c r="D70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1879.35786648195</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1879</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>757</v>
       </c>
     </row>
     <row r="71" ht="15" spans="2:6">
       <c r="B71" s="2">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="C71" s="3">
         <v>8.16</v>
       </c>
       <c r="D71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1840.49339207048</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1840</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>730</v>
       </c>
     </row>
     <row r="72" ht="15" spans="2:6">
       <c r="B72" s="2">
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="C72" s="3">
         <v>7.8608</v>
       </c>
       <c r="D72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1802.70966586043</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1803</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70B</v>
       </c>
     </row>
     <row r="73" ht="15" spans="2:6">
       <c r="B73" s="2">
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="C73" s="3">
         <v>7.5785</v>
       </c>
       <c r="D73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1765.88082032028</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:E104" si="9">ROUND(D73,0)</f>
+        <f t="shared" ref="E73:E104" si="12">ROUND(D73,0)</f>
         <v>1766</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6E6</v>
       </c>
     </row>
     <row r="74" ht="15" spans="2:6">
       <c r="B74" s="2">
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="C74" s="3">
         <v>7.3109</v>
       </c>
       <c r="D74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1729.86074669717</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1730</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6C2</v>
       </c>
     </row>
     <row r="75" ht="15" spans="2:6">
       <c r="B75" s="2">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="C75" s="3">
         <v>7.0564</v>
       </c>
       <c r="D75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1694.55538097137</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1695</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>69F</v>
       </c>
     </row>
     <row r="76" ht="15" spans="2:6">
       <c r="B76" s="2">
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="C76" s="3">
         <v>6.8133</v>
       </c>
       <c r="D76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1659.83339380134</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1660</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>67C</v>
       </c>
     </row>
     <row r="77" ht="15" spans="2:6">
       <c r="B77" s="2">
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="C77" s="3">
         <v>6.5806</v>
       </c>
       <c r="D77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1625.64307684885</v>
       </c>
       <c r="E77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1626</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65A</v>
       </c>
     </row>
     <row r="78" ht="15" spans="2:6">
       <c r="B78" s="2">
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="C78" s="3">
         <v>6.357</v>
       </c>
       <c r="D78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1591.8733264046</v>
       </c>
       <c r="E78">
+        <f t="shared" si="12"/>
+        <v>1592</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="10"/>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="2:6">
+      <c r="B79" s="2">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="C79" s="4">
+        <v>6.1418</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="9"/>
-        <v>1592</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="8"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="79" ht="15" spans="2:6">
-      <c r="B79" s="4">
-        <v>38</v>
-      </c>
-      <c r="C79" s="5">
-        <v>6.1418</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="7"/>
         <v>1558.48869394987</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1558</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>616</v>
       </c>
     </row>
     <row r="80" ht="15" spans="2:6">
       <c r="B80" s="2">
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="C80" s="3">
         <v>5.9343</v>
       </c>
       <c r="D80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1525.44465712331</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1525</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5F5</v>
       </c>
     </row>
     <row r="81" ht="15" spans="2:6">
       <c r="B81" s="2">
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C81" s="3">
         <v>5.734</v>
       </c>
       <c r="D81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1492.72047794585</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1493</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5D5</v>
       </c>
     </row>
     <row r="82" ht="15" spans="2:6">
       <c r="B82" s="2">
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="C82" s="3">
         <v>5.5405</v>
       </c>
       <c r="D82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1460.30616775522</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1460</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5B4</v>
       </c>
     </row>
     <row r="83" ht="15" spans="2:6">
       <c r="B83" s="2">
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="C83" s="3">
         <v>5.3534</v>
       </c>
       <c r="D83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1428.18700743809</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1428</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>594</v>
       </c>
     </row>
     <row r="84" ht="15" spans="2:6">
       <c r="B84" s="2">
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="C84" s="3">
         <v>5.1725</v>
       </c>
       <c r="D84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1396.37897511946</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1396</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>574</v>
       </c>
     </row>
     <row r="85" ht="15" spans="2:6">
       <c r="B85" s="2">
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="C85" s="3">
         <v>4.9976</v>
       </c>
       <c r="D85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1364.89635675041</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1365</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>555</v>
       </c>
     </row>
     <row r="86" ht="15" spans="2:6">
       <c r="B86" s="2">
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="C86" s="3">
         <v>4.8286</v>
       </c>
       <c r="D86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1333.77025477793</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1334</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>536</v>
       </c>
     </row>
     <row r="87" ht="15" spans="2:6">
       <c r="B87" s="2">
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="C87" s="3">
         <v>4.6652</v>
       </c>
       <c r="D87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1302.99342661539</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1303</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>517</v>
       </c>
     </row>
     <row r="88" ht="15" spans="2:6">
       <c r="B88" s="2">
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="C88" s="3">
         <v>4.5073</v>
       </c>
       <c r="D88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1272.59385274999</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1273</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4F9</v>
       </c>
     </row>
     <row r="89" ht="15" spans="2:6">
       <c r="B89" s="2">
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="C89" s="3">
         <v>4.3548</v>
       </c>
       <c r="D89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1242.59904700867</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1243</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4DB</v>
       </c>
     </row>
     <row r="90" ht="15" spans="2:6">
       <c r="B90" s="2">
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="C90" s="3">
         <v>4.2075</v>
       </c>
       <c r="D90">
-        <f t="shared" ref="D90:D121" si="10">3.3/(10+C90)*C90*4096/3.3</f>
+        <f t="shared" ref="D90:D121" si="13">3.3/(10+C90)*C90*4096/3.3</f>
         <v>1213.01566074257</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1213</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4BD</v>
       </c>
     </row>
     <row r="91" ht="15" spans="2:6">
       <c r="B91" s="2">
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="C91" s="3">
         <v>4.065</v>
       </c>
       <c r="D91">
+        <f t="shared" si="13"/>
+        <v>1183.80661215784</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="12"/>
+        <v>1184</v>
+      </c>
+      <c r="F91" t="str">
         <f t="shared" si="10"/>
-        <v>1183.80661215784</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="9"/>
-        <v>1184</v>
-      </c>
-      <c r="F91" t="str">
-        <f t="shared" si="8"/>
         <v>4A0</v>
       </c>
     </row>
     <row r="92" ht="15" spans="2:6">
-      <c r="B92" s="4">
+      <c r="B92" s="2">
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>3.9271</v>
       </c>
       <c r="D92">
+        <f t="shared" si="13"/>
+        <v>1154.97135799987</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="12"/>
+        <v>1155</v>
+      </c>
+      <c r="F92" t="str">
         <f t="shared" si="10"/>
-        <v>1154.97135799987</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="9"/>
-        <v>1155</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="8"/>
         <v>483</v>
       </c>
     </row>
     <row r="93" ht="15" spans="2:6">
       <c r="B93" s="2">
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="C93" s="3">
         <v>3.7936</v>
       </c>
       <c r="D93">
+        <f t="shared" si="13"/>
+        <v>1126.50690175154</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="12"/>
+        <v>1127</v>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="10"/>
-        <v>1126.50690175154</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="9"/>
-        <v>1127</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="8"/>
         <v>467</v>
       </c>
     </row>
     <row r="94" ht="15" spans="2:6">
       <c r="B94" s="2">
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="C94" s="3">
         <v>3.6639</v>
       </c>
       <c r="D94">
+        <f t="shared" si="13"/>
+        <v>1098.31998184998</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="12"/>
+        <v>1098</v>
+      </c>
+      <c r="F94" t="str">
         <f t="shared" si="10"/>
-        <v>1098.31998184998</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="9"/>
-        <v>1098</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="8"/>
         <v>44A</v>
       </c>
     </row>
     <row r="95" ht="15" spans="2:6">
       <c r="B95" s="2">
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="C95" s="3">
         <v>3.5377</v>
       </c>
       <c r="D95">
+        <f t="shared" si="13"/>
+        <v>1070.37526315401</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="12"/>
+        <v>1070</v>
+      </c>
+      <c r="F95" t="str">
         <f t="shared" si="10"/>
-        <v>1070.37526315401</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="9"/>
-        <v>1070</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="8"/>
         <v>42E</v>
       </c>
     </row>
     <row r="96" ht="15" spans="2:6">
       <c r="B96" s="2">
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="C96" s="3">
         <v>3.4146</v>
       </c>
       <c r="D96">
+        <f t="shared" si="13"/>
+        <v>1042.61040955377</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="12"/>
+        <v>1043</v>
+      </c>
+      <c r="F96" t="str">
         <f t="shared" si="10"/>
-        <v>1042.61040955377</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="9"/>
-        <v>1043</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="8"/>
         <v>413</v>
       </c>
     </row>
     <row r="97" ht="15" spans="2:6">
       <c r="B97" s="2">
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="C97" s="3">
         <v>3.2939</v>
       </c>
       <c r="D97">
+        <f t="shared" si="13"/>
+        <v>1014.88761010689</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="12"/>
+        <v>1015</v>
+      </c>
+      <c r="F97" t="str">
         <f t="shared" si="10"/>
-        <v>1014.88761010689</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="9"/>
-        <v>1015</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="8"/>
         <v>3F7</v>
       </c>
     </row>
     <row r="98" ht="15" spans="2:6">
       <c r="B98" s="2">
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="C98" s="3">
         <v>3.1752</v>
       </c>
       <c r="D98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>987.128787418787</v>
       </c>
       <c r="E98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>987</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" ref="F98:F129" si="11">DEC2HEX(E98)</f>
+        <f t="shared" ref="F98:F129" si="14">DEC2HEX(E98)</f>
         <v>3DB</v>
       </c>
     </row>
     <row r="99" ht="15" spans="2:6">
       <c r="B99" s="2">
+        <f t="shared" ref="B99:B130" si="15">B98+1</f>
         <v>58</v>
       </c>
       <c r="C99" s="3">
         <v>3.0579</v>
       </c>
       <c r="D99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>959.201586778885</v>
       </c>
       <c r="E99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>959</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3BF</v>
       </c>
     </row>
     <row r="100" ht="15" spans="2:6">
       <c r="B100" s="2">
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
       <c r="C100" s="3">
         <v>2.9414</v>
       </c>
       <c r="D100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>930.963759716877</v>
       </c>
       <c r="E100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>931</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3A3</v>
       </c>
     </row>
     <row r="101" ht="15" spans="2:6">
       <c r="B101" s="2">
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="C101" s="3">
         <v>2.825</v>
       </c>
       <c r="D101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>902.237816764133</v>
       </c>
       <c r="E101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>902</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>386</v>
       </c>
     </row>
     <row r="102" ht="15" spans="2:6">
       <c r="B102" s="2">
+        <f t="shared" si="15"/>
         <v>61</v>
       </c>
       <c r="C102" s="3">
         <v>2.7762</v>
       </c>
       <c r="D102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>890.038916109641</v>
       </c>
       <c r="E102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>890</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>37A</v>
       </c>
     </row>
     <row r="103" ht="15" spans="2:6">
       <c r="B103" s="2">
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="C103" s="3">
         <v>2.7179</v>
       </c>
       <c r="D103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>875.342501513615</v>
       </c>
       <c r="E103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>875</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>36B</v>
       </c>
     </row>
     <row r="104" ht="15" spans="2:6">
       <c r="B104" s="2">
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="C104" s="3">
         <v>2.6523</v>
       </c>
       <c r="D104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>858.643946159987</v>
       </c>
       <c r="E104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>859</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>35B</v>
       </c>
     </row>
     <row r="105" ht="15" spans="2:6">
-      <c r="B105" s="4">
+      <c r="B105" s="2">
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>2.5817</v>
       </c>
       <c r="D105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>840.478091195943</v>
       </c>
       <c r="E105">
-        <f t="shared" ref="E105:E150" si="12">ROUND(D105,0)</f>
+        <f t="shared" ref="E105:E150" si="16">ROUND(D105,0)</f>
         <v>840</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>348</v>
       </c>
     </row>
     <row r="106" ht="15" spans="2:6">
       <c r="B106" s="2">
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="C106" s="3">
         <v>2.5076</v>
       </c>
       <c r="D106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>821.191083821037</v>
       </c>
       <c r="E106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>821</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>335</v>
       </c>
     </row>
     <row r="107" ht="15" spans="2:6">
       <c r="B107" s="2">
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="C107" s="3">
         <v>2.4319</v>
       </c>
       <c r="D107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>801.250203106524</v>
       </c>
       <c r="E107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>801</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>321</v>
       </c>
     </row>
     <row r="108" ht="15" spans="2:6">
       <c r="B108" s="2">
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="C108" s="3">
         <v>2.3557</v>
       </c>
       <c r="D108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>780.930841635844</v>
       </c>
       <c r="E108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>781</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>30D</v>
       </c>
     </row>
     <row r="109" ht="15" spans="2:6">
       <c r="B109" s="2">
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="C109" s="3">
         <v>2.2803</v>
       </c>
       <c r="D109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>760.576598291573</v>
       </c>
       <c r="E109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>761</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2F9</v>
       </c>
     </row>
     <row r="110" ht="15" spans="2:6">
       <c r="B110" s="2">
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="C110" s="3">
         <v>2.2065</v>
       </c>
       <c r="D110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>740.410764756482</v>
       </c>
       <c r="E110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>740</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2E4</v>
       </c>
     </row>
     <row r="111" ht="15" spans="2:6">
-      <c r="B111" s="4">
+      <c r="B111" s="2">
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>2.135</v>
       </c>
       <c r="D111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>720.639472599917</v>
       </c>
       <c r="E111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>721</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2D1</v>
       </c>
     </row>
     <row r="112" ht="15" spans="2:6">
       <c r="B112" s="2">
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="C112" s="3">
         <v>2.0661</v>
       </c>
       <c r="D112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>701.365445338593</v>
       </c>
       <c r="E112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>701</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2BD</v>
       </c>
     </row>
     <row r="113" ht="15" spans="2:6">
       <c r="B113" s="2">
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="C113" s="3">
         <v>2.0004</v>
       </c>
       <c r="D113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>682.780440651978</v>
       </c>
       <c r="E113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>683</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2AB</v>
       </c>
     </row>
     <row r="114" ht="15" spans="2:6">
       <c r="B114" s="2">
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="C114" s="3">
         <v>1.9378</v>
       </c>
       <c r="D114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>664.88203856657</v>
       </c>
       <c r="E114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>665</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>299</v>
       </c>
     </row>
     <row r="115" ht="15" spans="2:6">
       <c r="B115" s="2">
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="C115" s="3">
         <v>1.8785</v>
       </c>
       <c r="D115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>647.753167487477</v>
       </c>
       <c r="E115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>648</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
     </row>
     <row r="116" ht="15" spans="2:6">
       <c r="B116" s="2">
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="C116" s="3">
         <v>1.8225</v>
       </c>
       <c r="D116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>631.419750475788</v>
       </c>
       <c r="E116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>631</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>277</v>
       </c>
     </row>
     <row r="117" ht="15" spans="2:6">
       <c r="B117" s="2">
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="C117" s="3">
         <v>1.7696</v>
       </c>
       <c r="D117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>615.847743338771</v>
       </c>
       <c r="E117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>616</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>268</v>
       </c>
     </row>
     <row r="118" ht="15" spans="2:6">
-      <c r="B118" s="4">
+      <c r="B118" s="2">
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <v>1.7197</v>
       </c>
       <c r="D118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>601.029992235296</v>
       </c>
       <c r="E118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>601</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>259</v>
       </c>
     </row>
     <row r="119" ht="15" spans="2:6">
       <c r="B119" s="2">
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="C119" s="3">
         <v>1.6727</v>
       </c>
       <c r="D119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>586.957533389875</v>
       </c>
       <c r="E119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>587</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24B</v>
       </c>
     </row>
     <row r="120" ht="15" spans="2:6">
       <c r="B120" s="2">
+        <f t="shared" si="15"/>
         <v>79</v>
       </c>
       <c r="C120" s="3">
         <v>1.6282</v>
       </c>
       <c r="D120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>573.52876627509</v>
       </c>
       <c r="E120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>574</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23E</v>
       </c>
     </row>
     <row r="121" ht="15" spans="2:6">
       <c r="B121" s="2">
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="C121" s="3">
         <v>1.586</v>
       </c>
       <c r="D121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>560.698774382876</v>
       </c>
       <c r="E121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>561</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>231</v>
       </c>
     </row>
     <row r="122" ht="15" spans="2:6">
       <c r="B122" s="2">
+        <f t="shared" si="15"/>
         <v>81</v>
       </c>
       <c r="C122" s="3">
         <v>1.5458</v>
       </c>
       <c r="D122">
-        <f t="shared" ref="D122:D150" si="13">3.3/(10+C122)*C122*4096/3.3</f>
+        <f t="shared" ref="D122:D150" si="17">3.3/(10+C122)*C122*4096/3.3</f>
         <v>548.389613539122</v>
       </c>
       <c r="E122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>548</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
     </row>
     <row r="123" ht="15" spans="2:6">
       <c r="B123" s="2">
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="C123" s="3">
         <v>1.5075</v>
       </c>
       <c r="D123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>536.582228981099</v>
       </c>
       <c r="E123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>537</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>219</v>
       </c>
     </row>
     <row r="124" ht="15" spans="2:6">
-      <c r="B124" s="4">
+      <c r="B124" s="2">
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <v>1.4707</v>
       </c>
       <c r="D124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>525.162997898995</v>
       </c>
       <c r="E124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>525</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>20D</v>
       </c>
     </row>
     <row r="125" ht="15" spans="2:6">
       <c r="B125" s="2">
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="C125" s="3">
         <v>1.4352</v>
       </c>
       <c r="D125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>514.077515041276</v>
       </c>
       <c r="E125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>514</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>202</v>
       </c>
     </row>
     <row r="126" ht="15" spans="2:6">
       <c r="B126" s="2">
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="C126" s="3">
         <v>1.4006</v>
       </c>
       <c r="D126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>503.20663824711</v>
       </c>
       <c r="E126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>503</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1F7</v>
       </c>
     </row>
     <row r="127" ht="15" spans="2:6">
       <c r="B127" s="2">
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="C127" s="3">
         <v>1.3669</v>
       </c>
       <c r="D127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>492.554909430012</v>
       </c>
       <c r="E127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>493</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1ED</v>
       </c>
     </row>
     <row r="128" ht="15" spans="2:6">
       <c r="B128" s="2">
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="C128" s="3">
         <v>1.3337</v>
       </c>
       <c r="D128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>481.999276493996</v>
       </c>
       <c r="E128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>482</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1E2</v>
       </c>
     </row>
     <row r="129" ht="15" spans="2:6">
       <c r="B129" s="2">
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
       <c r="C129" s="3">
         <v>1.3009</v>
       </c>
       <c r="D129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>471.509915139502</v>
       </c>
       <c r="E129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>472</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1D8</v>
       </c>
     </row>
     <row r="130" ht="15" spans="2:6">
       <c r="B130" s="2">
+        <f t="shared" si="15"/>
         <v>89</v>
       </c>
       <c r="C130" s="3">
         <v>1.2684</v>
       </c>
       <c r="D130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>461.056263533421</v>
       </c>
       <c r="E130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>461</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" ref="F130:F150" si="14">DEC2HEX(E130)</f>
+        <f t="shared" ref="F130:F150" si="18">DEC2HEX(E130)</f>
         <v>1CD</v>
       </c>
     </row>
     <row r="131" ht="15" spans="2:6">
-      <c r="B131" s="4">
+      <c r="B131" s="2">
+        <f t="shared" ref="B131:B150" si="19">B130+1</f>
         <v>90</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <v>1.236</v>
       </c>
       <c r="D131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>450.574581701673</v>
       </c>
       <c r="E131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>451</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1C3</v>
       </c>
     </row>
     <row r="132" ht="15" spans="2:6">
       <c r="B132" s="2">
+        <f t="shared" si="19"/>
         <v>91</v>
       </c>
       <c r="C132" s="3">
         <v>1.2037</v>
       </c>
       <c r="D132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>440.064907128895</v>
       </c>
       <c r="E132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>440</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1B8</v>
       </c>
     </row>
     <row r="133" ht="15" spans="2:6">
       <c r="B133" s="2">
+        <f t="shared" si="19"/>
         <v>92</v>
       </c>
       <c r="C133" s="3">
         <v>1.1714</v>
       </c>
       <c r="D133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>429.494459065113</v>
       </c>
       <c r="E133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>429</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1AD</v>
       </c>
     </row>
     <row r="134" ht="15" spans="2:6">
       <c r="B134" s="2">
+        <f t="shared" si="19"/>
         <v>93</v>
       </c>
       <c r="C134" s="3">
         <v>1.139</v>
       </c>
       <c r="D134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>418.829697459377</v>
       </c>
       <c r="E134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>419</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1A3</v>
       </c>
     </row>
     <row r="135" ht="15" spans="2:6">
       <c r="B135" s="2">
+        <f t="shared" si="19"/>
         <v>94</v>
       </c>
       <c r="C135" s="3">
         <v>1.1067</v>
       </c>
       <c r="D135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>408.13591795943</v>
       </c>
       <c r="E135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>408</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>198</v>
       </c>
     </row>
     <row r="136" ht="15" spans="2:6">
       <c r="B136" s="2">
+        <f t="shared" si="19"/>
         <v>95</v>
       </c>
       <c r="C136" s="3">
         <v>1.0744</v>
       </c>
       <c r="D136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>397.37975872282</v>
       </c>
       <c r="E136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>397</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18D</v>
       </c>
     </row>
     <row r="137" ht="15" spans="2:6">
-      <c r="B137" s="4">
+      <c r="B137" s="2">
+        <f t="shared" si="19"/>
         <v>96</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <v>1.0422</v>
       </c>
       <c r="D137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>386.594265635471</v>
       </c>
       <c r="E137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>387</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>183</v>
       </c>
     </row>
     <row r="138" ht="15" spans="2:6">
       <c r="B138" s="2">
+        <f t="shared" si="19"/>
         <v>97</v>
       </c>
       <c r="C138" s="3">
         <v>1.0104</v>
       </c>
       <c r="D138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>375.880839933154</v>
       </c>
       <c r="E138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>376</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>178</v>
       </c>
     </row>
     <row r="139" ht="15" spans="2:6">
       <c r="B139" s="2">
+        <f t="shared" si="19"/>
         <v>98</v>
       </c>
       <c r="C139" s="3">
         <v>0.9789</v>
       </c>
       <c r="D139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>365.207297634554</v>
       </c>
       <c r="E139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>365</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16D</v>
       </c>
     </row>
     <row r="140" ht="15" spans="2:6">
       <c r="B140" s="2">
+        <f t="shared" si="19"/>
         <v>99</v>
       </c>
       <c r="C140" s="3">
         <v>0.9481</v>
       </c>
       <c r="D140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>354.71155725651</v>
       </c>
       <c r="E140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>355</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>163</v>
       </c>
     </row>
     <row r="141" ht="15" spans="2:6">
       <c r="B141" s="2">
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="C141" s="3">
         <v>0.918</v>
       </c>
       <c r="D141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>344.397142333761</v>
       </c>
       <c r="E141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>344</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>158</v>
       </c>
     </row>
     <row r="142" ht="15" spans="2:7">
       <c r="B142" s="2">
+        <f t="shared" si="19"/>
         <v>101</v>
       </c>
       <c r="C142" s="3">
         <v>0.8889</v>
       </c>
       <c r="D142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>334.371185335525</v>
       </c>
       <c r="E142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>334</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>14E</v>
       </c>
-      <c r="G142" s="6"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" ht="15" spans="2:6">
-      <c r="B143" s="4">
-        <v>103</v>
-      </c>
-      <c r="C143" s="5">
+      <c r="B143" s="2">
+        <f t="shared" si="19"/>
+        <v>102</v>
+      </c>
+      <c r="C143" s="4">
         <v>0.8346</v>
       </c>
       <c r="D143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>315.518948553708</v>
       </c>
       <c r="E143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>316</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>13C</v>
       </c>
     </row>
     <row r="144" ht="15" spans="2:6">
       <c r="B144" s="2">
-        <v>104</v>
+        <f t="shared" si="19"/>
+        <v>103</v>
       </c>
       <c r="C144" s="3">
         <v>0.8099</v>
       </c>
       <c r="D144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>306.880766704595</v>
       </c>
       <c r="E144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>307</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>133</v>
       </c>
     </row>
     <row r="145" ht="15" spans="2:6">
       <c r="B145" s="2">
-        <v>105</v>
+        <f t="shared" si="19"/>
+        <v>104</v>
       </c>
       <c r="C145" s="3">
         <v>0.787</v>
       </c>
       <c r="D145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>298.836747937332</v>
       </c>
       <c r="E145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>299</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12B</v>
       </c>
     </row>
     <row r="146" ht="15" spans="2:6">
       <c r="B146" s="2">
-        <v>106</v>
+        <f t="shared" si="19"/>
+        <v>105</v>
       </c>
       <c r="C146" s="3">
         <v>0.7665</v>
       </c>
       <c r="D146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>291.606743138439</v>
       </c>
       <c r="E146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>292</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>124</v>
       </c>
     </row>
     <row r="147" ht="15" spans="2:6">
       <c r="B147" s="2">
-        <v>107</v>
+        <f t="shared" si="19"/>
+        <v>106</v>
       </c>
       <c r="C147" s="3">
         <v>0.7485</v>
       </c>
       <c r="D147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>285.235707307996</v>
       </c>
       <c r="E147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>285</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11D</v>
       </c>
     </row>
     <row r="148" ht="15" spans="2:6">
       <c r="B148" s="2">
-        <v>108</v>
+        <f t="shared" si="19"/>
+        <v>107</v>
       </c>
       <c r="C148" s="3">
         <v>0.7334</v>
       </c>
       <c r="D148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>279.874634319042</v>
       </c>
       <c r="E148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>280</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
     </row>
     <row r="149" ht="15" spans="2:6">
-      <c r="B149" s="5">
+      <c r="B149" s="2">
+        <f t="shared" si="19"/>
+        <v>108</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.7214</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="17"/>
+        <v>275.603410002425</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="16"/>
+        <v>276</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="18"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="2:6">
+      <c r="B150" s="2">
+        <f t="shared" si="19"/>
         <v>109</v>
-      </c>
-      <c r="C149" s="5">
-        <v>0.7214</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="13"/>
-        <v>275.603410002425</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="12"/>
-        <v>276</v>
-      </c>
-      <c r="F149" t="str">
-        <f t="shared" si="14"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" ht="15" spans="2:6">
-      <c r="B150" s="3">
-        <v>110</v>
       </c>
       <c r="C150" s="3">
         <v>0.713</v>
       </c>
       <c r="D150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>272.60785960982</v>
       </c>
       <c r="E150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>273</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>111</v>
       </c>
     </row>
@@ -4492,7 +4623,7 @@
   <sheetPr/>
   <dimension ref="B1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="W20" sqref="W20:X35"/>
     </sheetView>
   </sheetViews>

--- a/air_condition/docs/工作簿1.xlsx
+++ b/air_condition/docs/工作簿1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="9660"/>
+    <workbookView windowWidth="24860" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="HR202L" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -34,12 +34,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="@&quot;,&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="@,"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="@&quot;,&quot;"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -65,53 +65,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +81,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,15 +133,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,9 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,7 +195,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,28 +203,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,25 +223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,31 +241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,55 +271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,25 +289,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +337,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,8 +457,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,28 +472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +497,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -524,15 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,129 +540,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,40 +682,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -726,7 +723,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,7 +2868,7 @@
   <sheetPr/>
   <dimension ref="C1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
+    <sheetView topLeftCell="C133" workbookViewId="0">
       <selection activeCell="L133" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
@@ -2888,16 +2885,16 @@
       <c r="C1" s="4">
         <v>190.5562</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <f>C1*10000</f>
         <v>1905562</v>
       </c>
-      <c r="E1" s="7" t="str">
+      <c r="E1" s="6" t="str">
         <f>DEC2HEX(D1)</f>
         <v>1D139A</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9">
+      <c r="F1" s="7"/>
+      <c r="G1" s="8">
         <v>-40</v>
       </c>
     </row>
@@ -2905,16 +2902,16 @@
       <c r="C2" s="4">
         <v>183.4132</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f t="shared" ref="D2:D33" si="0">C2*10000</f>
         <v>1834132</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="6" t="str">
         <f t="shared" ref="E2:E33" si="1">DEC2HEX(D2)</f>
         <v>1BFC94</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9">
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
         <f>G1+1</f>
         <v>-39</v>
       </c>
@@ -2923,16 +2920,16 @@
       <c r="C3" s="4">
         <v>175.674</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>1756740</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1ACE44</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G34" si="2">G2+1</f>
         <v>-38</v>
       </c>
@@ -2941,16 +2938,16 @@
       <c r="C4" s="4">
         <v>167.6467</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>1676467</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1994B3</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8">
         <f t="shared" si="2"/>
         <v>-37</v>
       </c>
@@ -2959,16 +2956,16 @@
       <c r="C5" s="4">
         <v>159.5647</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>1595647</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1858FF</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9">
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
         <f t="shared" si="2"/>
         <v>-36</v>
       </c>
@@ -2977,16 +2974,16 @@
       <c r="C6" s="4">
         <v>151.5975</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>1515975</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1721C7</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>-35</v>
       </c>
@@ -2995,16 +2992,16 @@
       <c r="C7" s="4">
         <v>143.8624</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>1438624</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>15F3A0</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>-34</v>
       </c>
@@ -3013,16 +3010,16 @@
       <c r="C8" s="4">
         <v>136.4361</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>1364361</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>14D189</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9">
+      <c r="F8" s="7"/>
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>-33</v>
       </c>
@@ -3031,16 +3028,16 @@
       <c r="C9" s="4">
         <v>129.3641</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>1293641</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13BD49</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>-32</v>
       </c>
@@ -3049,16 +3046,16 @@
       <c r="C10" s="4">
         <v>122.6678</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>1226678</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12B7B6</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>-31</v>
       </c>
@@ -3067,16 +3064,16 @@
       <c r="C11" s="4">
         <v>116.3519</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>1163519</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>11C0FF</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9">
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>-30</v>
       </c>
@@ -3085,16 +3082,16 @@
       <c r="C12" s="4">
         <v>110.4098</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>1104098</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>10D8E2</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9">
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>-29</v>
       </c>
@@ -3103,34 +3100,34 @@
       <c r="C13" s="4">
         <v>104.8272</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>1048272</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>FFED0</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9">
+      <c r="F13" s="7"/>
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>-28</v>
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>99.5847</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>995847</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>F3207</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9">
+      <c r="F14" s="7"/>
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>-27</v>
       </c>
@@ -3139,16 +3136,16 @@
       <c r="C15" s="4">
         <v>94.6608</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>946608</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>E71B0</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9">
+      <c r="F15" s="7"/>
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
         <v>-26</v>
       </c>
@@ -3157,16 +3154,16 @@
       <c r="C16" s="4">
         <v>90.0326</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>900326</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>DBCE6</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9">
+      <c r="F16" s="7"/>
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
@@ -3175,16 +3172,16 @@
       <c r="C17" s="4">
         <v>85.6778</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>856778</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>D12CA</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9">
+      <c r="F17" s="7"/>
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>-24</v>
       </c>
@@ -3193,16 +3190,16 @@
       <c r="C18" s="4">
         <v>81.5747</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>815747</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>C7283</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9">
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
         <v>-23</v>
       </c>
@@ -3211,16 +3208,16 @@
       <c r="C19" s="4">
         <v>77.7031</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>777031</v>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>BDB47</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9">
+      <c r="F19" s="7"/>
+      <c r="G19" s="8">
         <f t="shared" si="2"/>
         <v>-22</v>
       </c>
@@ -3229,16 +3226,16 @@
       <c r="C20" s="4">
         <v>74.0442</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>740442</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>B4C5A</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9">
+      <c r="F20" s="7"/>
+      <c r="G20" s="8">
         <f t="shared" si="2"/>
         <v>-21</v>
       </c>
@@ -3247,16 +3244,16 @@
       <c r="C21" s="4">
         <v>70.5811</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>705811</v>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>AC513</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9">
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
@@ -3265,16 +3262,16 @@
       <c r="C22" s="4">
         <v>67.2987</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>672987</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>A44DB</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9">
+      <c r="F22" s="7"/>
+      <c r="G22" s="8">
         <f t="shared" si="2"/>
         <v>-19</v>
       </c>
@@ -3283,16 +3280,16 @@
       <c r="C23" s="4">
         <v>64.1834</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>641834</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>9CB2A</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9">
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
         <f t="shared" si="2"/>
         <v>-18</v>
       </c>
@@ -3301,16 +3298,16 @@
       <c r="C24" s="4">
         <v>61.2233</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>612233</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>95789</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9">
+      <c r="F24" s="7"/>
+      <c r="G24" s="8">
         <f t="shared" si="2"/>
         <v>-17</v>
       </c>
@@ -3319,16 +3316,16 @@
       <c r="C25" s="4">
         <v>58.408</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>584080</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>8E990</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9">
+      <c r="F25" s="7"/>
+      <c r="G25" s="8">
         <f t="shared" si="2"/>
         <v>-16</v>
       </c>
@@ -3337,34 +3334,34 @@
       <c r="C26" s="4">
         <v>55.7284</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>557284</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>880E4</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9">
+      <c r="F26" s="7"/>
+      <c r="G26" s="8">
         <f t="shared" si="2"/>
         <v>-15</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>53.1766</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>531766</v>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>81D36</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9">
+      <c r="F27" s="7"/>
+      <c r="G27" s="8">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
@@ -3373,16 +3370,16 @@
       <c r="C28" s="4">
         <v>50.7456</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>507456</v>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>7BE40</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9">
+      <c r="F28" s="7"/>
+      <c r="G28" s="8">
         <f t="shared" si="2"/>
         <v>-13</v>
       </c>
@@ -3391,16 +3388,16 @@
       <c r="C29" s="4">
         <v>48.4294</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>484294</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>763C6</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9">
+      <c r="F29" s="7"/>
+      <c r="G29" s="8">
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
@@ -3409,16 +3406,16 @@
       <c r="C30" s="4">
         <v>46.2224</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>462224</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>70D90</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9">
+      <c r="F30" s="7"/>
+      <c r="G30" s="8">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
@@ -3427,16 +3424,16 @@
       <c r="C31" s="4">
         <v>44.1201</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>441201</v>
       </c>
-      <c r="E31" s="7" t="str">
+      <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>6BB71</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9">
+      <c r="F31" s="7"/>
+      <c r="G31" s="8">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
@@ -3445,16 +3442,16 @@
       <c r="C32" s="4">
         <v>42.118</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>421180</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>66D3C</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9">
+      <c r="F32" s="7"/>
+      <c r="G32" s="8">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
@@ -3463,16 +3460,16 @@
       <c r="C33" s="4">
         <v>40.2121</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>402121</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>622C9</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9">
+      <c r="F33" s="7"/>
+      <c r="G33" s="8">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
@@ -3481,16 +3478,16 @@
       <c r="C34" s="4">
         <v>38.3988</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" ref="D34:D65" si="3">C34*10000</f>
         <v>383988</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="6" t="str">
         <f t="shared" ref="E34:E65" si="4">DEC2HEX(D34)</f>
         <v>5DBF4</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9">
+      <c r="F34" s="7"/>
+      <c r="G34" s="8">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
@@ -3499,16 +3496,16 @@
       <c r="C35" s="4">
         <v>36.6746</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="3"/>
         <v>366746</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="6" t="str">
         <f t="shared" si="4"/>
         <v>5989A</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9">
+      <c r="F35" s="7"/>
+      <c r="G35" s="8">
         <f t="shared" ref="G35:G66" si="5">G34+1</f>
         <v>-6</v>
       </c>
@@ -3517,16 +3514,16 @@
       <c r="C36" s="4">
         <v>35.0362</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="3"/>
         <v>350362</v>
       </c>
-      <c r="E36" s="7" t="str">
+      <c r="E36" s="6" t="str">
         <f t="shared" si="4"/>
         <v>5589A</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9">
+      <c r="F36" s="7"/>
+      <c r="G36" s="8">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
@@ -3535,16 +3532,16 @@
       <c r="C37" s="4">
         <v>33.4802</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="3"/>
         <v>334802</v>
       </c>
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="6" t="str">
         <f t="shared" si="4"/>
         <v>51BD2</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9">
+      <c r="F37" s="7"/>
+      <c r="G37" s="8">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
@@ -3553,16 +3550,16 @@
       <c r="C38" s="4">
         <v>32.0035</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="3"/>
         <v>320035</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="6" t="str">
         <f t="shared" si="4"/>
         <v>4E223</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9">
+      <c r="F38" s="7"/>
+      <c r="G38" s="8">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
@@ -3571,34 +3568,34 @@
       <c r="C39" s="4">
         <v>30.6028</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="3"/>
         <v>306028</v>
       </c>
-      <c r="E39" s="7" t="str">
+      <c r="E39" s="6" t="str">
         <f t="shared" si="4"/>
         <v>4AB6C</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9">
+      <c r="F39" s="7"/>
+      <c r="G39" s="8">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
     <row r="40" spans="3:7">
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>29.275</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="3"/>
         <v>292750</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="6" t="str">
         <f t="shared" si="4"/>
         <v>4778E</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9">
+      <c r="F40" s="7"/>
+      <c r="G40" s="8">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
@@ -3607,16 +3604,16 @@
       <c r="C41" s="4">
         <v>28.017</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="3"/>
         <v>280170</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="6" t="str">
         <f t="shared" si="4"/>
         <v>4466A</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9">
+      <c r="F41" s="7"/>
+      <c r="G41" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3625,16 +3622,16 @@
       <c r="C42" s="4">
         <v>26.8255</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <f t="shared" si="3"/>
         <v>268255</v>
       </c>
-      <c r="E42" s="7" t="str">
+      <c r="E42" s="6" t="str">
         <f t="shared" si="4"/>
         <v>417DF</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9">
+      <c r="F42" s="7"/>
+      <c r="G42" s="8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -3643,16 +3640,16 @@
       <c r="C43" s="4">
         <v>25.6972</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f t="shared" si="3"/>
         <v>256972</v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="6" t="str">
         <f t="shared" si="4"/>
         <v>3EBCC</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9">
+      <c r="F43" s="7"/>
+      <c r="G43" s="8">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -3661,16 +3658,16 @@
       <c r="C44" s="4">
         <v>24.629</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="3"/>
         <v>246290</v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="6" t="str">
         <f t="shared" si="4"/>
         <v>3C212</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9">
+      <c r="F44" s="7"/>
+      <c r="G44" s="8">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -3679,16 +3676,16 @@
       <c r="C45" s="4">
         <v>23.6176</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <f t="shared" si="3"/>
         <v>236176</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="6" t="str">
         <f t="shared" si="4"/>
         <v>39A90</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9">
+      <c r="F45" s="7"/>
+      <c r="G45" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3697,16 +3694,16 @@
       <c r="C46" s="4">
         <v>22.6597</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="3"/>
         <v>226597</v>
       </c>
-      <c r="E46" s="7" t="str">
+      <c r="E46" s="6" t="str">
         <f t="shared" si="4"/>
         <v>37525</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9">
+      <c r="F46" s="7"/>
+      <c r="G46" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3715,16 +3712,16 @@
       <c r="C47" s="4">
         <v>21.7522</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="3"/>
         <v>217522</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="6" t="str">
         <f t="shared" si="4"/>
         <v>351B2</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9">
+      <c r="F47" s="7"/>
+      <c r="G47" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -3733,16 +3730,16 @@
       <c r="C48" s="4">
         <v>20.8916</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="3"/>
         <v>208916</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="6" t="str">
         <f t="shared" si="4"/>
         <v>33014</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9">
+      <c r="F48" s="7"/>
+      <c r="G48" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -3751,16 +3748,16 @@
       <c r="C49" s="4">
         <v>20.0749</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <f t="shared" si="3"/>
         <v>200749</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="6" t="str">
         <f t="shared" si="4"/>
         <v>3102D</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9">
+      <c r="F49" s="7"/>
+      <c r="G49" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -3769,16 +3766,16 @@
       <c r="C50" s="4">
         <v>19.2988</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <f t="shared" si="3"/>
         <v>192988</v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="6" t="str">
         <f t="shared" si="4"/>
         <v>2F1DC</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9">
+      <c r="F50" s="7"/>
+      <c r="G50" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -3787,16 +3784,16 @@
       <c r="C51" s="4">
         <v>18.56</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <f t="shared" si="3"/>
         <v>185600</v>
       </c>
-      <c r="E51" s="7" t="str">
+      <c r="E51" s="6" t="str">
         <f t="shared" si="4"/>
         <v>2D500</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9">
+      <c r="F51" s="7"/>
+      <c r="G51" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -3805,34 +3802,34 @@
       <c r="C52" s="4">
         <v>18.4818</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <f t="shared" si="3"/>
         <v>184818</v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="6" t="str">
         <f t="shared" si="4"/>
         <v>2D1F2</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9">
+      <c r="F52" s="7"/>
+      <c r="G52" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="3:7">
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>18.1489</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <f t="shared" si="3"/>
         <v>181489</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="6" t="str">
         <f t="shared" si="4"/>
         <v>2C4F1</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9">
+      <c r="F53" s="7"/>
+      <c r="G53" s="8">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -3841,16 +3838,16 @@
       <c r="C54" s="4">
         <v>17.6316</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <f t="shared" si="3"/>
         <v>176316</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="6" t="str">
         <f t="shared" si="4"/>
         <v>2B0BC</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9">
+      <c r="F54" s="7"/>
+      <c r="G54" s="8">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -3859,16 +3856,16 @@
       <c r="C55" s="4">
         <v>16.9917</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <f t="shared" si="3"/>
         <v>169917</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="6" t="str">
         <f t="shared" si="4"/>
         <v>297BD</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9">
+      <c r="F55" s="7"/>
+      <c r="G55" s="8">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -3877,16 +3874,16 @@
       <c r="C56" s="4">
         <v>16.2797</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <f t="shared" si="3"/>
         <v>162797</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="6" t="str">
         <f t="shared" si="4"/>
         <v>27BED</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9">
+      <c r="F56" s="7"/>
+      <c r="G56" s="8">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -3895,16 +3892,16 @@
       <c r="C57" s="4">
         <v>15.535</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <f t="shared" si="3"/>
         <v>155350</v>
       </c>
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="6" t="str">
         <f t="shared" si="4"/>
         <v>25ED6</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9">
+      <c r="F57" s="7"/>
+      <c r="G57" s="8">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -3913,16 +3910,16 @@
       <c r="C58" s="4">
         <v>14.7867</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <f t="shared" si="3"/>
         <v>147867</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="6" t="str">
         <f t="shared" si="4"/>
         <v>2419B</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9">
+      <c r="F58" s="7"/>
+      <c r="G58" s="8">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -3931,16 +3928,16 @@
       <c r="C59" s="4">
         <v>14.0551</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <f t="shared" si="3"/>
         <v>140551</v>
       </c>
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="6" t="str">
         <f t="shared" si="4"/>
         <v>22507</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9">
+      <c r="F59" s="7"/>
+      <c r="G59" s="8">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -3949,16 +3946,16 @@
       <c r="C60" s="4">
         <v>13.3536</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <f t="shared" si="3"/>
         <v>133536</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="6" t="str">
         <f t="shared" si="4"/>
         <v>209A0</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9">
+      <c r="F60" s="7"/>
+      <c r="G60" s="8">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -3967,16 +3964,16 @@
       <c r="C61" s="4">
         <v>12.69</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <f t="shared" si="3"/>
         <v>126900</v>
       </c>
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1EFB4</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9">
+      <c r="F61" s="7"/>
+      <c r="G61" s="8">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -3985,16 +3982,16 @@
       <c r="C62" s="4">
         <v>12.0684</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <f t="shared" si="3"/>
         <v>120684</v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1D76C</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9">
+      <c r="F62" s="7"/>
+      <c r="G62" s="8">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -4003,16 +4000,16 @@
       <c r="C63" s="4">
         <v>11.49</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <f t="shared" si="3"/>
         <v>114900</v>
       </c>
-      <c r="E63" s="7" t="str">
+      <c r="E63" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1C0D4</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9">
+      <c r="F63" s="7"/>
+      <c r="G63" s="8">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -4021,16 +4018,16 @@
       <c r="C64" s="4">
         <v>10.9539</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <f t="shared" si="3"/>
         <v>109539</v>
       </c>
-      <c r="E64" s="7" t="str">
+      <c r="E64" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1ABE3</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="9">
+      <c r="F64" s="7"/>
+      <c r="G64" s="8">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
@@ -4039,34 +4036,34 @@
       <c r="C65" s="4">
         <v>10.4582</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <f t="shared" si="3"/>
         <v>104582</v>
       </c>
-      <c r="E65" s="7" t="str">
+      <c r="E65" s="6" t="str">
         <f t="shared" si="4"/>
         <v>19886</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9">
+      <c r="F65" s="7"/>
+      <c r="G65" s="8">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>10</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <f t="shared" ref="D66:D97" si="6">C66*10000</f>
         <v>100000</v>
       </c>
-      <c r="E66" s="7" t="str">
+      <c r="E66" s="6" t="str">
         <f t="shared" ref="E66:E97" si="7">DEC2HEX(D66)</f>
         <v>186A0</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9">
+      <c r="F66" s="7"/>
+      <c r="G66" s="8">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
@@ -4075,16 +4072,16 @@
       <c r="C67" s="4">
         <v>9.5762</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <f t="shared" si="6"/>
         <v>95762</v>
       </c>
-      <c r="E67" s="7" t="str">
+      <c r="E67" s="6" t="str">
         <f t="shared" si="7"/>
         <v>17612</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9">
+      <c r="F67" s="7"/>
+      <c r="G67" s="8">
         <f t="shared" ref="G67:G98" si="8">G66+1</f>
         <v>26</v>
       </c>
@@ -4093,16 +4090,16 @@
       <c r="C68" s="4">
         <v>9.1835</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <f t="shared" si="6"/>
         <v>91835</v>
       </c>
-      <c r="E68" s="7" t="str">
+      <c r="E68" s="6" t="str">
         <f t="shared" si="7"/>
         <v>166BB</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9">
+      <c r="F68" s="7"/>
+      <c r="G68" s="8">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
@@ -4111,16 +4108,16 @@
       <c r="C69" s="4">
         <v>8.8186</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <f t="shared" si="6"/>
         <v>88186</v>
       </c>
-      <c r="E69" s="7" t="str">
+      <c r="E69" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1587A</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9">
+      <c r="F69" s="7"/>
+      <c r="G69" s="8">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
@@ -4129,16 +4126,16 @@
       <c r="C70" s="4">
         <v>8.4784</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <f t="shared" si="6"/>
         <v>84784</v>
       </c>
-      <c r="E70" s="7" t="str">
+      <c r="E70" s="6" t="str">
         <f t="shared" si="7"/>
         <v>14B30</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9">
+      <c r="F70" s="7"/>
+      <c r="G70" s="8">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
@@ -4147,16 +4144,16 @@
       <c r="C71" s="4">
         <v>8.16</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <f t="shared" si="6"/>
         <v>81600</v>
       </c>
-      <c r="E71" s="7" t="str">
+      <c r="E71" s="6" t="str">
         <f t="shared" si="7"/>
         <v>13EC0</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9">
+      <c r="F71" s="7"/>
+      <c r="G71" s="8">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -4165,16 +4162,16 @@
       <c r="C72" s="4">
         <v>7.8608</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <f t="shared" si="6"/>
         <v>78608</v>
       </c>
-      <c r="E72" s="7" t="str">
+      <c r="E72" s="6" t="str">
         <f t="shared" si="7"/>
         <v>13310</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="9">
+      <c r="F72" s="7"/>
+      <c r="G72" s="8">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
@@ -4183,16 +4180,16 @@
       <c r="C73" s="4">
         <v>7.5785</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <f t="shared" si="6"/>
         <v>75785</v>
       </c>
-      <c r="E73" s="7" t="str">
+      <c r="E73" s="6" t="str">
         <f t="shared" si="7"/>
         <v>12809</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="9">
+      <c r="F73" s="7"/>
+      <c r="G73" s="8">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
@@ -4201,16 +4198,16 @@
       <c r="C74" s="4">
         <v>7.3109</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <f t="shared" si="6"/>
         <v>73109</v>
       </c>
-      <c r="E74" s="7" t="str">
+      <c r="E74" s="6" t="str">
         <f t="shared" si="7"/>
         <v>11D95</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="9">
+      <c r="F74" s="7"/>
+      <c r="G74" s="8">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
@@ -4219,16 +4216,16 @@
       <c r="C75" s="4">
         <v>7.0564</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <f t="shared" si="6"/>
         <v>70564</v>
       </c>
-      <c r="E75" s="7" t="str">
+      <c r="E75" s="6" t="str">
         <f t="shared" si="7"/>
         <v>113A4</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9">
+      <c r="F75" s="7"/>
+      <c r="G75" s="8">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
@@ -4237,16 +4234,16 @@
       <c r="C76" s="4">
         <v>6.8133</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <f t="shared" si="6"/>
         <v>68133</v>
       </c>
-      <c r="E76" s="7" t="str">
+      <c r="E76" s="6" t="str">
         <f t="shared" si="7"/>
         <v>10A25</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="9">
+      <c r="F76" s="7"/>
+      <c r="G76" s="8">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
@@ -4255,16 +4252,16 @@
       <c r="C77" s="4">
         <v>6.5806</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <f t="shared" si="6"/>
         <v>65806</v>
       </c>
-      <c r="E77" s="7" t="str">
+      <c r="E77" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1010E</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9">
+      <c r="F77" s="7"/>
+      <c r="G77" s="8">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
@@ -4273,34 +4270,34 @@
       <c r="C78" s="4">
         <v>6.357</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <f t="shared" si="6"/>
         <v>63570</v>
       </c>
-      <c r="E78" s="7" t="str">
+      <c r="E78" s="6" t="str">
         <f t="shared" si="7"/>
         <v>F852</v>
       </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="9">
+      <c r="F78" s="7"/>
+      <c r="G78" s="8">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
     </row>
     <row r="79" spans="3:7">
-      <c r="C79" s="6">
+      <c r="C79" s="5">
         <v>6.1418</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <f t="shared" si="6"/>
         <v>61418</v>
       </c>
-      <c r="E79" s="7" t="str">
+      <c r="E79" s="6" t="str">
         <f t="shared" si="7"/>
         <v>EFEA</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9">
+      <c r="F79" s="7"/>
+      <c r="G79" s="8">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
@@ -4309,16 +4306,16 @@
       <c r="C80" s="4">
         <v>5.9343</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <f t="shared" si="6"/>
         <v>59343</v>
       </c>
-      <c r="E80" s="7" t="str">
+      <c r="E80" s="6" t="str">
         <f t="shared" si="7"/>
         <v>E7CF</v>
       </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="9">
+      <c r="F80" s="7"/>
+      <c r="G80" s="8">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
@@ -4327,16 +4324,16 @@
       <c r="C81" s="4">
         <v>5.734</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <f t="shared" si="6"/>
         <v>57340</v>
       </c>
-      <c r="E81" s="7" t="str">
+      <c r="E81" s="6" t="str">
         <f t="shared" si="7"/>
         <v>DFFC</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9">
+      <c r="F81" s="7"/>
+      <c r="G81" s="8">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
@@ -4345,16 +4342,16 @@
       <c r="C82" s="4">
         <v>5.5405</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <f t="shared" si="6"/>
         <v>55405</v>
       </c>
-      <c r="E82" s="7" t="str">
+      <c r="E82" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D86D</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9">
+      <c r="F82" s="7"/>
+      <c r="G82" s="8">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
@@ -4363,16 +4360,16 @@
       <c r="C83" s="4">
         <v>5.3534</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <f t="shared" si="6"/>
         <v>53534</v>
       </c>
-      <c r="E83" s="7" t="str">
+      <c r="E83" s="6" t="str">
         <f t="shared" si="7"/>
         <v>D11E</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9">
+      <c r="F83" s="7"/>
+      <c r="G83" s="8">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -4381,16 +4378,16 @@
       <c r="C84" s="4">
         <v>5.1725</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <f t="shared" si="6"/>
         <v>51725</v>
       </c>
-      <c r="E84" s="7" t="str">
+      <c r="E84" s="6" t="str">
         <f t="shared" si="7"/>
         <v>CA0D</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9">
+      <c r="F84" s="7"/>
+      <c r="G84" s="8">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
@@ -4399,16 +4396,16 @@
       <c r="C85" s="4">
         <v>4.9976</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <f t="shared" si="6"/>
         <v>49976</v>
       </c>
-      <c r="E85" s="7" t="str">
+      <c r="E85" s="6" t="str">
         <f t="shared" si="7"/>
         <v>C338</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="9">
+      <c r="F85" s="7"/>
+      <c r="G85" s="8">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
@@ -4417,16 +4414,16 @@
       <c r="C86" s="4">
         <v>4.8286</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <f t="shared" si="6"/>
         <v>48286</v>
       </c>
-      <c r="E86" s="7" t="str">
+      <c r="E86" s="6" t="str">
         <f t="shared" si="7"/>
         <v>BC9E</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="9">
+      <c r="F86" s="7"/>
+      <c r="G86" s="8">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -4435,16 +4432,16 @@
       <c r="C87" s="4">
         <v>4.6652</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <f t="shared" si="6"/>
         <v>46652</v>
       </c>
-      <c r="E87" s="7" t="str">
+      <c r="E87" s="6" t="str">
         <f t="shared" si="7"/>
         <v>B63C</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9">
+      <c r="F87" s="7"/>
+      <c r="G87" s="8">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
@@ -4453,16 +4450,16 @@
       <c r="C88" s="4">
         <v>4.5073</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <f t="shared" si="6"/>
         <v>45073</v>
       </c>
-      <c r="E88" s="7" t="str">
+      <c r="E88" s="6" t="str">
         <f t="shared" si="7"/>
         <v>B011</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9">
+      <c r="F88" s="7"/>
+      <c r="G88" s="8">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
@@ -4471,16 +4468,16 @@
       <c r="C89" s="4">
         <v>4.3548</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <f t="shared" si="6"/>
         <v>43548</v>
       </c>
-      <c r="E89" s="7" t="str">
+      <c r="E89" s="6" t="str">
         <f t="shared" si="7"/>
         <v>AA1C</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9">
+      <c r="F89" s="7"/>
+      <c r="G89" s="8">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4489,16 +4486,16 @@
       <c r="C90" s="4">
         <v>4.2075</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <f t="shared" si="6"/>
         <v>42075</v>
       </c>
-      <c r="E90" s="7" t="str">
+      <c r="E90" s="6" t="str">
         <f t="shared" si="7"/>
         <v>A45B</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9">
+      <c r="F90" s="7"/>
+      <c r="G90" s="8">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
@@ -4507,34 +4504,34 @@
       <c r="C91" s="4">
         <v>4.065</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <f t="shared" si="6"/>
         <v>40650</v>
       </c>
-      <c r="E91" s="7" t="str">
+      <c r="E91" s="6" t="str">
         <f t="shared" si="7"/>
         <v>9ECA</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9">
+      <c r="F91" s="7"/>
+      <c r="G91" s="8">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
     <row r="92" spans="3:7">
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <v>3.9271</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <f t="shared" si="6"/>
         <v>39271</v>
       </c>
-      <c r="E92" s="7" t="str">
+      <c r="E92" s="6" t="str">
         <f t="shared" si="7"/>
         <v>9967</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="9">
+      <c r="F92" s="7"/>
+      <c r="G92" s="8">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
@@ -4543,16 +4540,16 @@
       <c r="C93" s="4">
         <v>3.7936</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <f t="shared" si="6"/>
         <v>37936</v>
       </c>
-      <c r="E93" s="7" t="str">
+      <c r="E93" s="6" t="str">
         <f t="shared" si="7"/>
         <v>9430</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="9">
+      <c r="F93" s="7"/>
+      <c r="G93" s="8">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
@@ -4561,16 +4558,16 @@
       <c r="C94" s="4">
         <v>3.6639</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <f t="shared" si="6"/>
         <v>36639</v>
       </c>
-      <c r="E94" s="7" t="str">
+      <c r="E94" s="6" t="str">
         <f t="shared" si="7"/>
         <v>8F1F</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9">
+      <c r="F94" s="7"/>
+      <c r="G94" s="8">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
@@ -4579,16 +4576,16 @@
       <c r="C95" s="4">
         <v>3.5377</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <f t="shared" si="6"/>
         <v>35377</v>
       </c>
-      <c r="E95" s="7" t="str">
+      <c r="E95" s="6" t="str">
         <f t="shared" si="7"/>
         <v>8A31</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9">
+      <c r="F95" s="7"/>
+      <c r="G95" s="8">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
@@ -4597,16 +4594,16 @@
       <c r="C96" s="4">
         <v>3.4146</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <f t="shared" si="6"/>
         <v>34146</v>
       </c>
-      <c r="E96" s="7" t="str">
+      <c r="E96" s="6" t="str">
         <f t="shared" si="7"/>
         <v>8562</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="9">
+      <c r="F96" s="7"/>
+      <c r="G96" s="8">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
@@ -4615,16 +4612,16 @@
       <c r="C97" s="4">
         <v>3.2939</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <f t="shared" si="6"/>
         <v>32939</v>
       </c>
-      <c r="E97" s="7" t="str">
+      <c r="E97" s="6" t="str">
         <f t="shared" si="7"/>
         <v>80AB</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9">
+      <c r="F97" s="7"/>
+      <c r="G97" s="8">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
@@ -4633,16 +4630,16 @@
       <c r="C98" s="4">
         <v>3.1752</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <f t="shared" ref="D98:D129" si="9">C98*10000</f>
         <v>31752</v>
       </c>
-      <c r="E98" s="7" t="str">
+      <c r="E98" s="6" t="str">
         <f t="shared" ref="E98:E129" si="10">DEC2HEX(D98)</f>
         <v>7C08</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9">
+      <c r="F98" s="7"/>
+      <c r="G98" s="8">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
@@ -4651,16 +4648,16 @@
       <c r="C99" s="4">
         <v>3.0579</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <f t="shared" si="9"/>
         <v>30579</v>
       </c>
-      <c r="E99" s="7" t="str">
+      <c r="E99" s="6" t="str">
         <f t="shared" si="10"/>
         <v>7773</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9">
+      <c r="F99" s="7"/>
+      <c r="G99" s="8">
         <f t="shared" ref="G99:G130" si="11">G98+1</f>
         <v>58</v>
       </c>
@@ -4669,16 +4666,16 @@
       <c r="C100" s="4">
         <v>2.9414</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <f t="shared" si="9"/>
         <v>29414</v>
       </c>
-      <c r="E100" s="7" t="str">
+      <c r="E100" s="6" t="str">
         <f t="shared" si="10"/>
         <v>72E6</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9">
+      <c r="F100" s="7"/>
+      <c r="G100" s="8">
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
@@ -4687,16 +4684,16 @@
       <c r="C101" s="4">
         <v>2.825</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <f t="shared" si="9"/>
         <v>28250</v>
       </c>
-      <c r="E101" s="7" t="str">
+      <c r="E101" s="6" t="str">
         <f t="shared" si="10"/>
         <v>6E5A</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9">
+      <c r="F101" s="7"/>
+      <c r="G101" s="8">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
@@ -4705,16 +4702,16 @@
       <c r="C102" s="4">
         <v>2.7762</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <f t="shared" si="9"/>
         <v>27762</v>
       </c>
-      <c r="E102" s="7" t="str">
+      <c r="E102" s="6" t="str">
         <f t="shared" si="10"/>
         <v>6C72</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="9">
+      <c r="F102" s="7"/>
+      <c r="G102" s="8">
         <f t="shared" si="11"/>
         <v>61</v>
       </c>
@@ -4723,16 +4720,16 @@
       <c r="C103" s="4">
         <v>2.7179</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <f t="shared" si="9"/>
         <v>27179</v>
       </c>
-      <c r="E103" s="7" t="str">
+      <c r="E103" s="6" t="str">
         <f t="shared" si="10"/>
         <v>6A2B</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9">
+      <c r="F103" s="7"/>
+      <c r="G103" s="8">
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
@@ -4741,34 +4738,34 @@
       <c r="C104" s="4">
         <v>2.6523</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <f t="shared" si="9"/>
         <v>26523</v>
       </c>
-      <c r="E104" s="7" t="str">
+      <c r="E104" s="6" t="str">
         <f t="shared" si="10"/>
         <v>679B</v>
       </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="9">
+      <c r="F104" s="7"/>
+      <c r="G104" s="8">
         <f t="shared" si="11"/>
         <v>63</v>
       </c>
     </row>
     <row r="105" spans="3:7">
-      <c r="C105" s="6">
+      <c r="C105" s="5">
         <v>2.5817</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <f t="shared" si="9"/>
         <v>25817</v>
       </c>
-      <c r="E105" s="7" t="str">
+      <c r="E105" s="6" t="str">
         <f t="shared" si="10"/>
         <v>64D9</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="9">
+      <c r="F105" s="7"/>
+      <c r="G105" s="8">
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
@@ -4777,16 +4774,16 @@
       <c r="C106" s="4">
         <v>2.5076</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <f t="shared" si="9"/>
         <v>25076</v>
       </c>
-      <c r="E106" s="7" t="str">
+      <c r="E106" s="6" t="str">
         <f t="shared" si="10"/>
         <v>61F4</v>
       </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="9">
+      <c r="F106" s="7"/>
+      <c r="G106" s="8">
         <f t="shared" si="11"/>
         <v>65</v>
       </c>
@@ -4795,16 +4792,16 @@
       <c r="C107" s="4">
         <v>2.4319</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <f t="shared" si="9"/>
         <v>24319</v>
       </c>
-      <c r="E107" s="7" t="str">
+      <c r="E107" s="6" t="str">
         <f t="shared" si="10"/>
         <v>5EFF</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9">
+      <c r="F107" s="7"/>
+      <c r="G107" s="8">
         <f t="shared" si="11"/>
         <v>66</v>
       </c>
@@ -4813,16 +4810,16 @@
       <c r="C108" s="4">
         <v>2.3557</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <f t="shared" si="9"/>
         <v>23557</v>
       </c>
-      <c r="E108" s="7" t="str">
+      <c r="E108" s="6" t="str">
         <f t="shared" si="10"/>
         <v>5C05</v>
       </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="9">
+      <c r="F108" s="7"/>
+      <c r="G108" s="8">
         <f t="shared" si="11"/>
         <v>67</v>
       </c>
@@ -4831,16 +4828,16 @@
       <c r="C109" s="4">
         <v>2.2803</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <f t="shared" si="9"/>
         <v>22803</v>
       </c>
-      <c r="E109" s="7" t="str">
+      <c r="E109" s="6" t="str">
         <f t="shared" si="10"/>
         <v>5913</v>
       </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="9">
+      <c r="F109" s="7"/>
+      <c r="G109" s="8">
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
@@ -4849,34 +4846,34 @@
       <c r="C110" s="4">
         <v>2.2065</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <f t="shared" si="9"/>
         <v>22065</v>
       </c>
-      <c r="E110" s="7" t="str">
+      <c r="E110" s="6" t="str">
         <f t="shared" si="10"/>
         <v>5631</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="9">
+      <c r="F110" s="7"/>
+      <c r="G110" s="8">
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
     </row>
     <row r="111" spans="3:7">
-      <c r="C111" s="6">
+      <c r="C111" s="5">
         <v>2.135</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <f t="shared" si="9"/>
         <v>21350</v>
       </c>
-      <c r="E111" s="7" t="str">
+      <c r="E111" s="6" t="str">
         <f t="shared" si="10"/>
         <v>5366</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="9">
+      <c r="F111" s="7"/>
+      <c r="G111" s="8">
         <f t="shared" si="11"/>
         <v>70</v>
       </c>
@@ -4885,16 +4882,16 @@
       <c r="C112" s="4">
         <v>2.0661</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <f t="shared" si="9"/>
         <v>20661</v>
       </c>
-      <c r="E112" s="7" t="str">
+      <c r="E112" s="6" t="str">
         <f t="shared" si="10"/>
         <v>50B5</v>
       </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="9">
+      <c r="F112" s="7"/>
+      <c r="G112" s="8">
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
@@ -4903,16 +4900,16 @@
       <c r="C113" s="4">
         <v>2.0004</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <f t="shared" si="9"/>
         <v>20004</v>
       </c>
-      <c r="E113" s="7" t="str">
+      <c r="E113" s="6" t="str">
         <f t="shared" si="10"/>
         <v>4E24</v>
       </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="9">
+      <c r="F113" s="7"/>
+      <c r="G113" s="8">
         <f t="shared" si="11"/>
         <v>72</v>
       </c>
@@ -4921,16 +4918,16 @@
       <c r="C114" s="4">
         <v>1.9378</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <f t="shared" si="9"/>
         <v>19378</v>
       </c>
-      <c r="E114" s="7" t="str">
+      <c r="E114" s="6" t="str">
         <f t="shared" si="10"/>
         <v>4BB2</v>
       </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="9">
+      <c r="F114" s="7"/>
+      <c r="G114" s="8">
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
@@ -4939,16 +4936,16 @@
       <c r="C115" s="4">
         <v>1.8785</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <f t="shared" si="9"/>
         <v>18785</v>
       </c>
-      <c r="E115" s="7" t="str">
+      <c r="E115" s="6" t="str">
         <f t="shared" si="10"/>
         <v>4961</v>
       </c>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9">
+      <c r="F115" s="7"/>
+      <c r="G115" s="8">
         <f t="shared" si="11"/>
         <v>74</v>
       </c>
@@ -4957,16 +4954,16 @@
       <c r="C116" s="4">
         <v>1.8225</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <f t="shared" si="9"/>
         <v>18225</v>
       </c>
-      <c r="E116" s="7" t="str">
+      <c r="E116" s="6" t="str">
         <f t="shared" si="10"/>
         <v>4731</v>
       </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="9">
+      <c r="F116" s="7"/>
+      <c r="G116" s="8">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
@@ -4975,34 +4972,34 @@
       <c r="C117" s="4">
         <v>1.7696</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <f t="shared" si="9"/>
         <v>17696</v>
       </c>
-      <c r="E117" s="7" t="str">
+      <c r="E117" s="6" t="str">
         <f t="shared" si="10"/>
         <v>4520</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9">
+      <c r="F117" s="7"/>
+      <c r="G117" s="8">
         <f t="shared" si="11"/>
         <v>76</v>
       </c>
     </row>
     <row r="118" spans="3:7">
-      <c r="C118" s="6">
+      <c r="C118" s="5">
         <v>1.7197</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <f t="shared" si="9"/>
         <v>17197</v>
       </c>
-      <c r="E118" s="7" t="str">
+      <c r="E118" s="6" t="str">
         <f t="shared" si="10"/>
         <v>432D</v>
       </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="9">
+      <c r="F118" s="7"/>
+      <c r="G118" s="8">
         <f t="shared" si="11"/>
         <v>77</v>
       </c>
@@ -5011,16 +5008,16 @@
       <c r="C119" s="4">
         <v>1.6727</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <f t="shared" si="9"/>
         <v>16727</v>
       </c>
-      <c r="E119" s="7" t="str">
+      <c r="E119" s="6" t="str">
         <f t="shared" si="10"/>
         <v>4157</v>
       </c>
-      <c r="F119" s="8"/>
-      <c r="G119" s="9">
+      <c r="F119" s="7"/>
+      <c r="G119" s="8">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
@@ -5029,16 +5026,16 @@
       <c r="C120" s="4">
         <v>1.6282</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <f t="shared" si="9"/>
         <v>16282</v>
       </c>
-      <c r="E120" s="7" t="str">
+      <c r="E120" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3F9A</v>
       </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="9">
+      <c r="F120" s="7"/>
+      <c r="G120" s="8">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
@@ -5047,16 +5044,16 @@
       <c r="C121" s="4">
         <v>1.586</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <f t="shared" si="9"/>
         <v>15860</v>
       </c>
-      <c r="E121" s="7" t="str">
+      <c r="E121" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3DF4</v>
       </c>
-      <c r="F121" s="8"/>
-      <c r="G121" s="9">
+      <c r="F121" s="7"/>
+      <c r="G121" s="8">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
@@ -5065,16 +5062,16 @@
       <c r="C122" s="4">
         <v>1.5458</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <f t="shared" si="9"/>
         <v>15458</v>
       </c>
-      <c r="E122" s="7" t="str">
+      <c r="E122" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3C62</v>
       </c>
-      <c r="F122" s="8"/>
-      <c r="G122" s="9">
+      <c r="F122" s="7"/>
+      <c r="G122" s="8">
         <f t="shared" si="11"/>
         <v>81</v>
       </c>
@@ -5083,34 +5080,34 @@
       <c r="C123" s="4">
         <v>1.5075</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <f t="shared" si="9"/>
         <v>15075</v>
       </c>
-      <c r="E123" s="7" t="str">
+      <c r="E123" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3AE3</v>
       </c>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9">
+      <c r="F123" s="7"/>
+      <c r="G123" s="8">
         <f t="shared" si="11"/>
         <v>82</v>
       </c>
     </row>
     <row r="124" spans="3:7">
-      <c r="C124" s="6">
+      <c r="C124" s="5">
         <v>1.4707</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <f t="shared" si="9"/>
         <v>14707</v>
       </c>
-      <c r="E124" s="7" t="str">
+      <c r="E124" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3973</v>
       </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="9">
+      <c r="F124" s="7"/>
+      <c r="G124" s="8">
         <f t="shared" si="11"/>
         <v>83</v>
       </c>
@@ -5119,16 +5116,16 @@
       <c r="C125" s="4">
         <v>1.4352</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <f t="shared" si="9"/>
         <v>14352</v>
       </c>
-      <c r="E125" s="7" t="str">
+      <c r="E125" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3810</v>
       </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="9">
+      <c r="F125" s="7"/>
+      <c r="G125" s="8">
         <f t="shared" si="11"/>
         <v>84</v>
       </c>
@@ -5137,16 +5134,16 @@
       <c r="C126" s="4">
         <v>1.4006</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <f t="shared" si="9"/>
         <v>14006</v>
       </c>
-      <c r="E126" s="7" t="str">
+      <c r="E126" s="6" t="str">
         <f t="shared" si="10"/>
         <v>36B6</v>
       </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="9">
+      <c r="F126" s="7"/>
+      <c r="G126" s="8">
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
@@ -5155,16 +5152,16 @@
       <c r="C127" s="4">
         <v>1.3669</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <f t="shared" si="9"/>
         <v>13669</v>
       </c>
-      <c r="E127" s="7" t="str">
+      <c r="E127" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3565</v>
       </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="9">
+      <c r="F127" s="7"/>
+      <c r="G127" s="8">
         <f t="shared" si="11"/>
         <v>86</v>
       </c>
@@ -5173,16 +5170,16 @@
       <c r="C128" s="4">
         <v>1.3337</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <f t="shared" si="9"/>
         <v>13337</v>
       </c>
-      <c r="E128" s="7" t="str">
+      <c r="E128" s="6" t="str">
         <f t="shared" si="10"/>
         <v>3419</v>
       </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="9">
+      <c r="F128" s="7"/>
+      <c r="G128" s="8">
         <f t="shared" si="11"/>
         <v>87</v>
       </c>
@@ -5191,16 +5188,16 @@
       <c r="C129" s="4">
         <v>1.3009</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <f t="shared" si="9"/>
         <v>13009</v>
       </c>
-      <c r="E129" s="7" t="str">
+      <c r="E129" s="6" t="str">
         <f t="shared" si="10"/>
         <v>32D1</v>
       </c>
-      <c r="F129" s="8"/>
-      <c r="G129" s="9">
+      <c r="F129" s="7"/>
+      <c r="G129" s="8">
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
@@ -5209,34 +5206,34 @@
       <c r="C130" s="4">
         <v>1.2684</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <f t="shared" ref="D130:D150" si="12">C130*10000</f>
         <v>12684</v>
       </c>
-      <c r="E130" s="7" t="str">
+      <c r="E130" s="6" t="str">
         <f t="shared" ref="E130:E150" si="13">DEC2HEX(D130)</f>
         <v>318C</v>
       </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="9">
+      <c r="F130" s="7"/>
+      <c r="G130" s="8">
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
     </row>
     <row r="131" spans="3:7">
-      <c r="C131" s="6">
+      <c r="C131" s="5">
         <v>1.236</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <f t="shared" si="12"/>
         <v>12360</v>
       </c>
-      <c r="E131" s="7" t="str">
+      <c r="E131" s="6" t="str">
         <f t="shared" si="13"/>
         <v>3048</v>
       </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="9">
+      <c r="F131" s="7"/>
+      <c r="G131" s="8">
         <f t="shared" ref="G131:G150" si="14">G130+1</f>
         <v>90</v>
       </c>
@@ -5245,16 +5242,16 @@
       <c r="C132" s="4">
         <v>1.2037</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <f t="shared" si="12"/>
         <v>12037</v>
       </c>
-      <c r="E132" s="7" t="str">
+      <c r="E132" s="6" t="str">
         <f t="shared" si="13"/>
         <v>2F05</v>
       </c>
-      <c r="F132" s="8"/>
-      <c r="G132" s="9">
+      <c r="F132" s="7"/>
+      <c r="G132" s="8">
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
@@ -5263,16 +5260,16 @@
       <c r="C133" s="4">
         <v>1.1714</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <f t="shared" si="12"/>
         <v>11714</v>
       </c>
-      <c r="E133" s="7" t="str">
+      <c r="E133" s="6" t="str">
         <f t="shared" si="13"/>
         <v>2DC2</v>
       </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="9">
+      <c r="F133" s="7"/>
+      <c r="G133" s="8">
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
@@ -5281,16 +5278,16 @@
       <c r="C134" s="4">
         <v>1.139</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <f t="shared" si="12"/>
         <v>11390</v>
       </c>
-      <c r="E134" s="7" t="str">
+      <c r="E134" s="6" t="str">
         <f t="shared" si="13"/>
         <v>2C7E</v>
       </c>
-      <c r="F134" s="8"/>
-      <c r="G134" s="9">
+      <c r="F134" s="7"/>
+      <c r="G134" s="8">
         <f t="shared" si="14"/>
         <v>93</v>
       </c>
@@ -5299,16 +5296,16 @@
       <c r="C135" s="4">
         <v>1.1067</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <f t="shared" si="12"/>
         <v>11067</v>
       </c>
-      <c r="E135" s="7" t="str">
+      <c r="E135" s="6" t="str">
         <f t="shared" si="13"/>
         <v>2B3B</v>
       </c>
-      <c r="F135" s="8"/>
-      <c r="G135" s="9">
+      <c r="F135" s="7"/>
+      <c r="G135" s="8">
         <f t="shared" si="14"/>
         <v>94</v>
       </c>
@@ -5317,34 +5314,34 @@
       <c r="C136" s="4">
         <v>1.0744</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <f t="shared" si="12"/>
         <v>10744</v>
       </c>
-      <c r="E136" s="7" t="str">
+      <c r="E136" s="6" t="str">
         <f t="shared" si="13"/>
         <v>29F8</v>
       </c>
-      <c r="F136" s="8"/>
-      <c r="G136" s="9">
+      <c r="F136" s="7"/>
+      <c r="G136" s="8">
         <f t="shared" si="14"/>
         <v>95</v>
       </c>
     </row>
     <row r="137" spans="3:7">
-      <c r="C137" s="6">
+      <c r="C137" s="5">
         <v>1.0422</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <f t="shared" si="12"/>
         <v>10422</v>
       </c>
-      <c r="E137" s="7" t="str">
+      <c r="E137" s="6" t="str">
         <f t="shared" si="13"/>
         <v>28B6</v>
       </c>
-      <c r="F137" s="8"/>
-      <c r="G137" s="9">
+      <c r="F137" s="7"/>
+      <c r="G137" s="8">
         <f t="shared" si="14"/>
         <v>96</v>
       </c>
@@ -5353,16 +5350,16 @@
       <c r="C138" s="4">
         <v>1.0104</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <f t="shared" si="12"/>
         <v>10104</v>
       </c>
-      <c r="E138" s="7" t="str">
+      <c r="E138" s="6" t="str">
         <f t="shared" si="13"/>
         <v>2778</v>
       </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="9">
+      <c r="F138" s="7"/>
+      <c r="G138" s="8">
         <f t="shared" si="14"/>
         <v>97</v>
       </c>
@@ -5371,16 +5368,16 @@
       <c r="C139" s="4">
         <v>0.9789</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <f t="shared" si="12"/>
         <v>9789</v>
       </c>
-      <c r="E139" s="7" t="str">
+      <c r="E139" s="6" t="str">
         <f t="shared" si="13"/>
         <v>263D</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="9">
+      <c r="F139" s="7"/>
+      <c r="G139" s="8">
         <f t="shared" si="14"/>
         <v>98</v>
       </c>
@@ -5389,16 +5386,16 @@
       <c r="C140" s="4">
         <v>0.9481</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <f t="shared" si="12"/>
         <v>9481</v>
       </c>
-      <c r="E140" s="7" t="str">
+      <c r="E140" s="6" t="str">
         <f t="shared" si="13"/>
         <v>2509</v>
       </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="9">
+      <c r="F140" s="7"/>
+      <c r="G140" s="8">
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
@@ -5407,16 +5404,16 @@
       <c r="C141" s="4">
         <v>0.918</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <f t="shared" si="12"/>
         <v>9180</v>
       </c>
-      <c r="E141" s="7" t="str">
+      <c r="E141" s="6" t="str">
         <f t="shared" si="13"/>
         <v>23DC</v>
       </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="9">
+      <c r="F141" s="7"/>
+      <c r="G141" s="8">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
@@ -5425,35 +5422,35 @@
       <c r="C142" s="4">
         <v>0.8889</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <f t="shared" si="12"/>
         <v>8889</v>
       </c>
-      <c r="E142" s="7" t="str">
+      <c r="E142" s="6" t="str">
         <f t="shared" si="13"/>
         <v>22B9</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="9">
+      <c r="F142" s="7"/>
+      <c r="G142" s="8">
         <f t="shared" si="14"/>
         <v>101</v>
       </c>
-      <c r="H142" s="10"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="3:7">
-      <c r="C143" s="6">
+      <c r="C143" s="5">
         <v>0.8346</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <f t="shared" si="12"/>
         <v>8346</v>
       </c>
-      <c r="E143" s="7" t="str">
+      <c r="E143" s="6" t="str">
         <f t="shared" si="13"/>
         <v>209A</v>
       </c>
-      <c r="F143" s="8"/>
-      <c r="G143" s="9">
+      <c r="F143" s="7"/>
+      <c r="G143" s="8">
         <f t="shared" si="14"/>
         <v>102</v>
       </c>
@@ -5462,16 +5459,16 @@
       <c r="C144" s="4">
         <v>0.8099</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <f t="shared" si="12"/>
         <v>8099</v>
       </c>
-      <c r="E144" s="7" t="str">
+      <c r="E144" s="6" t="str">
         <f t="shared" si="13"/>
         <v>1FA3</v>
       </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="9">
+      <c r="F144" s="7"/>
+      <c r="G144" s="8">
         <f t="shared" si="14"/>
         <v>103</v>
       </c>
@@ -5480,16 +5477,16 @@
       <c r="C145" s="4">
         <v>0.787</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <f t="shared" si="12"/>
         <v>7870</v>
       </c>
-      <c r="E145" s="7" t="str">
+      <c r="E145" s="6" t="str">
         <f t="shared" si="13"/>
         <v>1EBE</v>
       </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="9">
+      <c r="F145" s="7"/>
+      <c r="G145" s="8">
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
@@ -5498,16 +5495,16 @@
       <c r="C146" s="4">
         <v>0.7665</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <f t="shared" si="12"/>
         <v>7665</v>
       </c>
-      <c r="E146" s="7" t="str">
+      <c r="E146" s="6" t="str">
         <f t="shared" si="13"/>
         <v>1DF1</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="9">
+      <c r="F146" s="7"/>
+      <c r="G146" s="8">
         <f t="shared" si="14"/>
         <v>105</v>
       </c>
@@ -5516,16 +5513,16 @@
       <c r="C147" s="4">
         <v>0.7485</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <f t="shared" si="12"/>
         <v>7485</v>
       </c>
-      <c r="E147" s="7" t="str">
+      <c r="E147" s="6" t="str">
         <f t="shared" si="13"/>
         <v>1D3D</v>
       </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="9">
+      <c r="F147" s="7"/>
+      <c r="G147" s="8">
         <f t="shared" si="14"/>
         <v>106</v>
       </c>
@@ -5534,34 +5531,34 @@
       <c r="C148" s="4">
         <v>0.7334</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <f t="shared" si="12"/>
         <v>7334</v>
       </c>
-      <c r="E148" s="7" t="str">
+      <c r="E148" s="6" t="str">
         <f t="shared" si="13"/>
         <v>1CA6</v>
       </c>
-      <c r="F148" s="8"/>
-      <c r="G148" s="9">
+      <c r="F148" s="7"/>
+      <c r="G148" s="8">
         <f t="shared" si="14"/>
         <v>107</v>
       </c>
     </row>
     <row r="149" spans="3:7">
-      <c r="C149" s="6">
+      <c r="C149" s="5">
         <v>0.7214</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <f t="shared" si="12"/>
         <v>7214</v>
       </c>
-      <c r="E149" s="7" t="str">
+      <c r="E149" s="6" t="str">
         <f t="shared" si="13"/>
         <v>1C2E</v>
       </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="9">
+      <c r="F149" s="7"/>
+      <c r="G149" s="8">
         <f t="shared" si="14"/>
         <v>108</v>
       </c>
@@ -5570,16 +5567,16 @@
       <c r="C150" s="4">
         <v>0.713</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <f t="shared" si="12"/>
         <v>7130</v>
       </c>
-      <c r="E150" s="7" t="str">
+      <c r="E150" s="6" t="str">
         <f t="shared" si="13"/>
         <v>1BDA</v>
       </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="9">
+      <c r="F150" s="7"/>
+      <c r="G150" s="8">
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
@@ -5596,8 +5593,8 @@
   <sheetPr/>
   <dimension ref="C4:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/air_condition/docs/工作簿1.xlsx
+++ b/air_condition/docs/工作簿1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="9660" activeTab="1"/>
+    <workbookView windowWidth="24860" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ntc-MF52-10kJ" sheetId="1" r:id="rId1"/>
     <sheet name="HR202L" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -34,11 +34,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="@&quot;,&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="@,"/>
+    <numFmt numFmtId="178" formatCode="@&quot;,&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="@,"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -65,17 +65,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,36 +93,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -125,8 +101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,14 +120,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,7 +142,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,22 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +223,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,169 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +457,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -468,45 +477,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,153 +521,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,10 +708,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +723,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,7 +922,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$150</c:f>
+              <c:f>'ntc-MF52-10kJ'!$C$1:$C$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
@@ -1381,7 +1381,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$150</c:f>
+              <c:f>'ntc-MF52-10kJ'!$G$1:$G$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
@@ -2868,8 +2868,8 @@
   <sheetPr/>
   <dimension ref="C1:H150"/>
   <sheetViews>
-    <sheetView topLeftCell="C133" workbookViewId="0">
-      <selection activeCell="L133" sqref="L$1:L$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5593,7 +5593,7 @@
   <sheetPr/>
   <dimension ref="C4:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
